--- a/George-Yanev-Milwaukee-Popov.xlsx
+++ b/George-Yanev-Milwaukee-Popov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="344" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="344" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="annuals" sheetId="1" state="visible" r:id="rId2"/>
@@ -356,7 +356,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -397,8 +397,8 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="166" xfId="0">
@@ -410,11 +410,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="166" xfId="0">
@@ -427,6 +423,10 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="166" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
@@ -445,15 +445,19 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -529,7 +533,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart258.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -792,11 +796,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="70638539"/>
-        <c:axId val="24885485"/>
+        <c:axId val="91434027"/>
+        <c:axId val="85837041"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70638539"/>
+        <c:axId val="91434027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,14 +816,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="24885485"/>
+        <c:crossAx val="85837041"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24885485"/>
+        <c:axId val="85837041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +848,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="70638539"/>
+        <c:crossAx val="91434027"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -872,7 +876,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart147.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart259.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1197,11 +1201,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="40891807"/>
-        <c:axId val="61511503"/>
+        <c:axId val="28296591"/>
+        <c:axId val="4298800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40891807"/>
+        <c:axId val="28296591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,14 +1221,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="61511503"/>
+        <c:crossAx val="4298800"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61511503"/>
+        <c:axId val="4298800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1253,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40891807"/>
+        <c:crossAx val="28296591"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1277,7 +1281,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart148.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart260.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2496,11 +2500,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="3423272"/>
-        <c:axId val="72261066"/>
+        <c:axId val="67772427"/>
+        <c:axId val="87353296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3423272"/>
+        <c:axId val="67772427"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,14 +2520,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72261066"/>
+        <c:crossAx val="87353296"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72261066"/>
+        <c:axId val="87353296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2552,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="3423272"/>
+        <c:crossAx val="67772427"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2576,7 +2580,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart149.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart261.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2743,11 +2747,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="13484302"/>
-        <c:axId val="1991866"/>
+        <c:axId val="32931722"/>
+        <c:axId val="15740904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13484302"/>
+        <c:axId val="32931722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,14 +2767,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1991866"/>
+        <c:crossAx val="15740904"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1991866"/>
+        <c:axId val="15740904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2795,7 +2799,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13484302"/>
+        <c:crossAx val="32931722"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2955,8 +2959,8 @@
   </sheetPr>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E2" activeCellId="1" pane="topLeft" sqref="B12:M12 E2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E2" activeCellId="0" pane="topLeft" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4750,8 +4754,8 @@
   </sheetPr>
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="B12:M12 A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="O24" activeCellId="0" pane="topLeft" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -7165,40 +7169,40 @@
       <c r="A34" s="9" t="n">
         <v>2005</v>
       </c>
-      <c r="B34" s="14" t="n">
+      <c r="B34" s="13" t="n">
         <v>-5.2</v>
       </c>
-      <c r="C34" s="14" t="n">
+      <c r="C34" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="D34" s="14" t="n">
+      <c r="D34" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="E34" s="14" t="n">
+      <c r="E34" s="13" t="n">
         <v>8.8</v>
       </c>
-      <c r="F34" s="14" t="n">
+      <c r="F34" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="G34" s="14" t="n">
+      <c r="G34" s="13" t="n">
         <v>21.9</v>
       </c>
-      <c r="H34" s="14" t="n">
+      <c r="H34" s="13" t="n">
         <v>22.6</v>
       </c>
-      <c r="I34" s="14" t="n">
+      <c r="I34" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="J34" s="14" t="n">
+      <c r="J34" s="13" t="n">
         <v>20.2</v>
       </c>
-      <c r="K34" s="14" t="n">
+      <c r="K34" s="13" t="n">
         <v>12.2</v>
       </c>
-      <c r="L34" s="14" t="n">
+      <c r="L34" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="M34" s="14" t="n">
+      <c r="M34" s="13" t="n">
         <v>-4.8</v>
       </c>
       <c r="N34" s="11" t="n">
@@ -7236,40 +7240,40 @@
       <c r="A35" s="9" t="n">
         <v>2006</v>
       </c>
-      <c r="B35" s="14" t="n">
+      <c r="B35" s="13" t="n">
         <v>1.3</v>
       </c>
-      <c r="C35" s="14" t="n">
+      <c r="C35" s="13" t="n">
         <v>-3.3</v>
       </c>
-      <c r="D35" s="14" t="n">
+      <c r="D35" s="13" t="n">
         <v>2.2</v>
       </c>
-      <c r="E35" s="14" t="n">
+      <c r="E35" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="F35" s="14" t="n">
+      <c r="F35" s="13" t="n">
         <v>14.2</v>
       </c>
-      <c r="G35" s="14" t="n">
+      <c r="G35" s="13" t="n">
         <v>19.2</v>
       </c>
-      <c r="H35" s="14" t="n">
+      <c r="H35" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="I35" s="14" t="n">
+      <c r="I35" s="13" t="n">
         <v>22.5</v>
       </c>
-      <c r="J35" s="14" t="n">
+      <c r="J35" s="13" t="n">
         <v>16.7</v>
       </c>
-      <c r="K35" s="14" t="n">
+      <c r="K35" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="L35" s="14" t="n">
+      <c r="L35" s="13" t="n">
         <v>5.5</v>
       </c>
-      <c r="M35" s="14" t="n">
+      <c r="M35" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="N35" s="11" t="n">
@@ -7307,40 +7311,40 @@
       <c r="A36" s="9" t="n">
         <v>2007</v>
       </c>
-      <c r="B36" s="14" t="n">
+      <c r="B36" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="C36" s="14" t="n">
+      <c r="C36" s="13" t="n">
         <v>-7.8</v>
       </c>
-      <c r="D36" s="14" t="n">
+      <c r="D36" s="13" t="n">
         <v>4.2</v>
       </c>
-      <c r="E36" s="14" t="n">
+      <c r="E36" s="13" t="n">
         <v>6.9</v>
       </c>
-      <c r="F36" s="14" t="n">
+      <c r="F36" s="13" t="n">
         <v>15.1</v>
       </c>
-      <c r="G36" s="14" t="n">
+      <c r="G36" s="13" t="n">
         <v>20.3</v>
       </c>
-      <c r="H36" s="14" t="n">
+      <c r="H36" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="I36" s="14" t="n">
+      <c r="I36" s="13" t="n">
         <v>22.2</v>
       </c>
-      <c r="J36" s="14" t="n">
+      <c r="J36" s="13" t="n">
         <v>18.6</v>
       </c>
-      <c r="K36" s="14" t="n">
+      <c r="K36" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="L36" s="14" t="n">
+      <c r="L36" s="13" t="n">
         <v>3.9</v>
       </c>
-      <c r="M36" s="14" t="n">
+      <c r="M36" s="13" t="n">
         <v>-3</v>
       </c>
       <c r="N36" s="11" t="n">
@@ -7378,40 +7382,40 @@
       <c r="A37" s="9" t="n">
         <v>2008</v>
       </c>
-      <c r="B37" s="14" t="n">
+      <c r="B37" s="13" t="n">
         <v>-4.9</v>
       </c>
-      <c r="C37" s="14" t="n">
+      <c r="C37" s="13" t="n">
         <v>-5.4</v>
       </c>
-      <c r="D37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="14" t="n">
+      <c r="D37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13" t="n">
         <v>7.8</v>
       </c>
-      <c r="F37" s="14" t="n">
+      <c r="F37" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="G37" s="14" t="n">
+      <c r="G37" s="13" t="n">
         <v>19.3</v>
       </c>
-      <c r="H37" s="14" t="n">
+      <c r="H37" s="13" t="n">
         <v>22.1</v>
       </c>
-      <c r="I37" s="14" t="n">
+      <c r="I37" s="13" t="n">
         <v>21.7</v>
       </c>
-      <c r="J37" s="14" t="n">
+      <c r="J37" s="13" t="n">
         <v>18.4</v>
       </c>
-      <c r="K37" s="14" t="n">
+      <c r="K37" s="13" t="n">
         <v>11.2</v>
       </c>
-      <c r="L37" s="14" t="n">
+      <c r="L37" s="13" t="n">
         <v>3.8</v>
       </c>
-      <c r="M37" s="14" t="n">
+      <c r="M37" s="13" t="n">
         <v>-5.1</v>
       </c>
       <c r="N37" s="11" t="n">
@@ -7449,40 +7453,40 @@
       <c r="A38" s="9" t="n">
         <v>2009</v>
       </c>
-      <c r="B38" s="14" t="n">
+      <c r="B38" s="13" t="n">
         <v>-8.7</v>
       </c>
-      <c r="C38" s="14" t="n">
+      <c r="C38" s="13" t="n">
         <v>-2.3</v>
       </c>
-      <c r="D38" s="14" t="n">
+      <c r="D38" s="13" t="n">
         <v>2.1</v>
       </c>
-      <c r="E38" s="14" t="n">
+      <c r="E38" s="13" t="n">
         <v>7.2</v>
       </c>
-      <c r="F38" s="14" t="n">
+      <c r="F38" s="13" t="n">
         <v>13.9</v>
       </c>
-      <c r="G38" s="14" t="n">
+      <c r="G38" s="13" t="n">
         <v>18.1</v>
       </c>
-      <c r="H38" s="14" t="n">
+      <c r="H38" s="13" t="n">
         <v>20.4</v>
       </c>
-      <c r="I38" s="14" t="n">
+      <c r="I38" s="13" t="n">
         <v>20.5</v>
       </c>
-      <c r="J38" s="14" t="n">
+      <c r="J38" s="13" t="n">
         <v>17.8</v>
       </c>
-      <c r="K38" s="14" t="n">
+      <c r="K38" s="13" t="n">
         <v>9.2</v>
       </c>
-      <c r="L38" s="14" t="n">
+      <c r="L38" s="13" t="n">
         <v>7.4</v>
       </c>
-      <c r="M38" s="14" t="n">
+      <c r="M38" s="13" t="n">
         <v>-2.7</v>
       </c>
       <c r="N38" s="11" t="n">
@@ -7520,40 +7524,40 @@
       <c r="A39" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="B39" s="14" t="n">
+      <c r="B39" s="13" t="n">
         <v>-5.3</v>
       </c>
-      <c r="C39" s="14" t="n">
+      <c r="C39" s="13" t="n">
         <v>-2.3</v>
       </c>
-      <c r="D39" s="14" t="n">
+      <c r="D39" s="13" t="n">
         <v>3.9</v>
       </c>
-      <c r="E39" s="14" t="n">
+      <c r="E39" s="13" t="n">
         <v>10.5</v>
       </c>
-      <c r="F39" s="14" t="n">
+      <c r="F39" s="13" t="n">
         <v>15.3</v>
       </c>
-      <c r="G39" s="14" t="n">
+      <c r="G39" s="13" t="n">
         <v>20.1</v>
       </c>
-      <c r="H39" s="14" t="n">
+      <c r="H39" s="13" t="n">
         <v>24.3</v>
       </c>
-      <c r="I39" s="14" t="n">
+      <c r="I39" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="J39" s="14" t="n">
+      <c r="J39" s="13" t="n">
         <v>17.3</v>
       </c>
-      <c r="K39" s="14" t="n">
+      <c r="K39" s="13" t="n">
         <v>12.6</v>
       </c>
-      <c r="L39" s="14" t="n">
+      <c r="L39" s="13" t="n">
         <v>5.3</v>
       </c>
-      <c r="M39" s="14" t="n">
+      <c r="M39" s="13" t="n">
         <v>-4.1</v>
       </c>
       <c r="N39" s="11" t="n">
@@ -7591,40 +7595,40 @@
       <c r="A40" s="9" t="n">
         <v>2011</v>
       </c>
-      <c r="B40" s="14" t="n">
+      <c r="B40" s="13" t="n">
         <v>-6.2</v>
       </c>
-      <c r="C40" s="14" t="n">
+      <c r="C40" s="13" t="n">
         <v>-3.6</v>
       </c>
-      <c r="D40" s="14" t="n">
+      <c r="D40" s="13" t="n">
         <v>0.8</v>
       </c>
-      <c r="E40" s="14" t="n">
+      <c r="E40" s="13" t="n">
         <v>6.7</v>
       </c>
-      <c r="F40" s="14" t="n">
+      <c r="F40" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="G40" s="14" t="n">
+      <c r="G40" s="13" t="n">
         <v>18.5</v>
       </c>
-      <c r="H40" s="14" t="n">
+      <c r="H40" s="13" t="n">
         <v>24.9</v>
       </c>
-      <c r="I40" s="14" t="n">
+      <c r="I40" s="13" t="n">
         <v>22.6</v>
       </c>
-      <c r="J40" s="14" t="n">
+      <c r="J40" s="13" t="n">
         <v>16.7</v>
       </c>
-      <c r="K40" s="14" t="n">
+      <c r="K40" s="13" t="n">
         <v>11.8</v>
       </c>
-      <c r="L40" s="14" t="n">
+      <c r="L40" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="M40" s="14" t="n">
+      <c r="M40" s="13" t="n">
         <v>0.9</v>
       </c>
       <c r="N40" s="11" t="n">
@@ -7662,40 +7666,40 @@
       <c r="A41" s="9" t="n">
         <v>2012</v>
       </c>
-      <c r="B41" s="14" t="n">
+      <c r="B41" s="13" t="n">
         <v>-1.9</v>
       </c>
-      <c r="C41" s="14" t="n">
+      <c r="C41" s="13" t="n">
         <v>-0.4</v>
       </c>
-      <c r="D41" s="14" t="n">
+      <c r="D41" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="E41" s="14" t="n">
+      <c r="E41" s="13" t="n">
         <v>7.9</v>
       </c>
-      <c r="F41" s="14" t="n">
+      <c r="F41" s="13" t="n">
         <v>16.2</v>
       </c>
-      <c r="G41" s="14" t="n">
+      <c r="G41" s="13" t="n">
         <v>21.9</v>
       </c>
-      <c r="H41" s="14" t="n">
+      <c r="H41" s="13" t="n">
         <v>25.9</v>
       </c>
-      <c r="I41" s="14" t="n">
+      <c r="I41" s="13" t="n">
         <v>22.1</v>
       </c>
-      <c r="J41" s="14" t="n">
+      <c r="J41" s="13" t="n">
         <v>16.9</v>
       </c>
-      <c r="K41" s="14" t="n">
+      <c r="K41" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="L41" s="14" t="n">
+      <c r="L41" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="M41" s="14" t="n">
+      <c r="M41" s="13" t="n">
         <v>1.2</v>
       </c>
       <c r="N41" s="11" t="n">
@@ -7733,40 +7737,40 @@
       <c r="A42" s="9" t="n">
         <v>2013</v>
       </c>
-      <c r="B42" s="14" t="n">
+      <c r="B42" s="13" t="n">
         <v>-3.9</v>
       </c>
-      <c r="C42" s="14" t="n">
+      <c r="C42" s="13" t="n">
         <v>-4.3</v>
       </c>
-      <c r="D42" s="14" t="n">
+      <c r="D42" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="E42" s="14" t="n">
+      <c r="E42" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F42" s="14" t="n">
+      <c r="F42" s="13" t="n">
         <v>13.4</v>
       </c>
-      <c r="G42" s="14" t="n">
+      <c r="G42" s="13" t="n">
         <v>18.1</v>
       </c>
-      <c r="H42" s="14" t="n">
+      <c r="H42" s="13" t="n">
         <v>22.2</v>
       </c>
-      <c r="I42" s="14" t="n">
+      <c r="I42" s="13" t="n">
         <v>21.7</v>
       </c>
-      <c r="J42" s="14" t="n">
+      <c r="J42" s="13" t="n">
         <v>18.3</v>
       </c>
-      <c r="K42" s="14" t="n">
+      <c r="K42" s="13" t="n">
         <v>11.3</v>
       </c>
-      <c r="L42" s="14" t="n">
+      <c r="L42" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="M42" s="14" t="n">
+      <c r="M42" s="13" t="n">
         <v>-5.4</v>
       </c>
       <c r="N42" s="11" t="n">
@@ -7804,40 +7808,40 @@
       <c r="A43" s="9" t="n">
         <v>2014</v>
       </c>
-      <c r="B43" s="14" t="n">
+      <c r="B43" s="13" t="n">
         <v>-9.9</v>
       </c>
-      <c r="C43" s="14" t="n">
+      <c r="C43" s="13" t="n">
         <v>-8.6</v>
       </c>
-      <c r="D43" s="14" t="n">
+      <c r="D43" s="13" t="n">
         <v>-1.7</v>
       </c>
-      <c r="E43" s="14" t="n">
+      <c r="E43" s="13" t="n">
         <v>6.6</v>
       </c>
-      <c r="F43" s="14" t="n">
+      <c r="F43" s="13" t="n">
         <v>13.4</v>
       </c>
-      <c r="G43" s="14" t="n">
+      <c r="G43" s="13" t="n">
         <v>18.3</v>
       </c>
-      <c r="H43" s="14" t="n">
+      <c r="H43" s="13" t="n">
         <v>20.2</v>
       </c>
-      <c r="I43" s="14" t="n">
+      <c r="I43" s="13" t="n">
         <v>20.9</v>
       </c>
-      <c r="J43" s="14" t="n">
+      <c r="J43" s="13" t="n">
         <v>16.6</v>
       </c>
-      <c r="K43" s="14" t="n">
+      <c r="K43" s="13" t="n">
         <v>10.7</v>
       </c>
-      <c r="L43" s="14" t="n">
+      <c r="L43" s="13" t="n">
         <v>0.6</v>
       </c>
-      <c r="M43" s="14" t="n">
+      <c r="M43" s="13" t="n">
         <v>-9.9</v>
       </c>
       <c r="N43" s="11" t="n">
@@ -7872,17 +7876,17 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44">
-      <c r="N44" s="15" t="n">
+      <c r="N44" s="14" t="n">
         <f aca="false">AVERAGE(N2:N43)</f>
         <v>8.77003968253968</v>
       </c>
-      <c r="Q44" s="15" t="n">
+      <c r="Q44" s="14" t="n">
         <f aca="false">(N44-$N$44)</f>
         <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="66">
-      <c r="A66" s="16"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="9" t="s">
         <v>54</v>
       </c>
@@ -7919,59 +7923,59 @@
       <c r="M66" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N66" s="17" t="s">
+      <c r="N66" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="67">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="10" t="n">
+      <c r="B67" s="17" t="n">
         <f aca="false">AVERAGE(B2:B43)</f>
         <v>-5.52857142857143</v>
       </c>
-      <c r="C67" s="10" t="n">
+      <c r="C67" s="17" t="n">
         <f aca="false">AVERAGE(C2:C43)</f>
         <v>-3.53333333333333</v>
       </c>
-      <c r="D67" s="10" t="n">
+      <c r="D67" s="17" t="n">
         <f aca="false">AVERAGE(D2:D43)</f>
         <v>1.70238095238095</v>
       </c>
-      <c r="E67" s="10" t="n">
+      <c r="E67" s="17" t="n">
         <f aca="false">AVERAGE(E2:E43)</f>
         <v>7.35238095238095</v>
       </c>
-      <c r="F67" s="10" t="n">
+      <c r="F67" s="17" t="n">
         <f aca="false">AVERAGE(F2:F43)</f>
         <v>13.1404761904762</v>
       </c>
-      <c r="G67" s="10" t="n">
+      <c r="G67" s="17" t="n">
         <f aca="false">AVERAGE(G2:G43)</f>
         <v>19.0071428571429</v>
       </c>
-      <c r="H67" s="10" t="n">
+      <c r="H67" s="17" t="n">
         <f aca="false">AVERAGE(H2:H43)</f>
         <v>22.3119047619048</v>
       </c>
-      <c r="I67" s="10" t="n">
+      <c r="I67" s="17" t="n">
         <f aca="false">AVERAGE(I2:I43)</f>
         <v>21.5142857142857</v>
       </c>
-      <c r="J67" s="10" t="n">
+      <c r="J67" s="17" t="n">
         <f aca="false">AVERAGE(J2:J43)</f>
         <v>17.2714285714286</v>
       </c>
-      <c r="K67" s="10" t="n">
+      <c r="K67" s="17" t="n">
         <f aca="false">AVERAGE(K2:K43)</f>
         <v>10.7547619047619</v>
       </c>
-      <c r="L67" s="10" t="n">
+      <c r="L67" s="17" t="n">
         <f aca="false">AVERAGE(L2:L43)</f>
         <v>4.10238095238095</v>
       </c>
-      <c r="M67" s="10" t="n">
+      <c r="M67" s="17" t="n">
         <f aca="false">AVERAGE(M2:M43)</f>
         <v>-2.8547619047619</v>
       </c>
@@ -7981,54 +7985,54 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="68">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="10" t="n">
+      <c r="B68" s="17" t="n">
         <f aca="false">AVERAGE(B14:B43)</f>
         <v>-4.76666666666667</v>
       </c>
-      <c r="C68" s="10" t="n">
+      <c r="C68" s="17" t="n">
         <f aca="false">AVERAGE(C14:C43)</f>
         <v>-3.23333333333333</v>
       </c>
-      <c r="D68" s="10" t="n">
+      <c r="D68" s="17" t="n">
         <f aca="false">AVERAGE(D14:D43)</f>
         <v>1.96666666666667</v>
       </c>
-      <c r="E68" s="10" t="n">
+      <c r="E68" s="17" t="n">
         <f aca="false">AVERAGE(E14:E43)</f>
         <v>7.64</v>
       </c>
-      <c r="F68" s="10" t="n">
+      <c r="F68" s="17" t="n">
         <f aca="false">AVERAGE(F14:F43)</f>
         <v>13.39</v>
       </c>
-      <c r="G68" s="10" t="n">
+      <c r="G68" s="17" t="n">
         <f aca="false">AVERAGE(G14:G43)</f>
         <v>19.27</v>
       </c>
-      <c r="H68" s="10" t="n">
+      <c r="H68" s="17" t="n">
         <f aca="false">AVERAGE(H14:H43)</f>
         <v>22.45</v>
       </c>
-      <c r="I68" s="10" t="n">
+      <c r="I68" s="17" t="n">
         <f aca="false">AVERAGE(I14:I43)</f>
         <v>21.7</v>
       </c>
-      <c r="J68" s="10" t="n">
+      <c r="J68" s="17" t="n">
         <f aca="false">AVERAGE(J14:J43)</f>
         <v>17.57</v>
       </c>
-      <c r="K68" s="10" t="n">
+      <c r="K68" s="17" t="n">
         <f aca="false">AVERAGE(K14:K43)</f>
         <v>10.9566666666667</v>
       </c>
-      <c r="L68" s="10" t="n">
+      <c r="L68" s="17" t="n">
         <f aca="false">AVERAGE(L14:L43)</f>
         <v>4.35</v>
       </c>
-      <c r="M68" s="10" t="n">
+      <c r="M68" s="17" t="n">
         <f aca="false">AVERAGE(M14:M43)</f>
         <v>-2.58</v>
       </c>
@@ -8054,10 +8058,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W156"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12:M12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="S45" activeCellId="0" pane="topLeft" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8181,6 +8185,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="19" t="n">
+        <f aca="false">SUM(B2:M2)</f>
         <v>0</v>
       </c>
       <c r="P2" s="9" t="n">
@@ -8194,15 +8199,19 @@
         <v>1973</v>
       </c>
       <c r="T2" s="21" t="n">
+        <f aca="false">SUM(D2:F2)</f>
         <v>0</v>
       </c>
       <c r="U2" s="21" t="n">
+        <f aca="false">SUM(G2:I2)</f>
         <v>0</v>
       </c>
       <c r="V2" s="21" t="n">
+        <f aca="false">SUM(J2:L2)</f>
         <v>0</v>
       </c>
       <c r="W2" s="21" t="n">
+        <f aca="false">SUM(M2,B3,C3)</f>
         <v>0</v>
       </c>
     </row>
@@ -8247,6 +8256,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="19" t="n">
+        <f aca="false">SUM(B3:M3)</f>
         <v>0</v>
       </c>
       <c r="P3" s="9" t="n">
@@ -8260,15 +8270,19 @@
         <v>1974</v>
       </c>
       <c r="T3" s="21" t="n">
+        <f aca="false">SUM(D3:F3)</f>
         <v>0</v>
       </c>
       <c r="U3" s="21" t="n">
+        <f aca="false">SUM(G3:I3)</f>
         <v>0</v>
       </c>
       <c r="V3" s="21" t="n">
+        <f aca="false">SUM(J3:L3)</f>
         <v>0</v>
       </c>
       <c r="W3" s="21" t="n">
+        <f aca="false">SUM(M3,B4,C4)</f>
         <v>0</v>
       </c>
     </row>
@@ -8313,6 +8327,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="19" t="n">
+        <f aca="false">SUM(B4:M4)</f>
         <v>0</v>
       </c>
       <c r="P4" s="9" t="n">
@@ -8326,59 +8341,64 @@
         <v>1975</v>
       </c>
       <c r="T4" s="21" t="n">
+        <f aca="false">SUM(D4:F4)</f>
         <v>0</v>
       </c>
       <c r="U4" s="21" t="n">
+        <f aca="false">SUM(G4:I4)</f>
         <v>0</v>
       </c>
       <c r="V4" s="21" t="n">
+        <f aca="false">SUM(J4:L4)</f>
         <v>0</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0</v>
+        <f aca="false">SUM(M4,B5,C5)</f>
+        <v>82.53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
       <c r="A5" s="9" t="n">
         <v>1976</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="18" t="n">
         <v>34.53</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="18" t="n">
         <v>48</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="18" t="n">
         <v>162.07</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="18" t="n">
         <v>126.48</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="18" t="n">
         <v>95.76</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="18" t="n">
         <v>57.15</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="18" t="n">
         <v>108.46</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="18" t="n">
         <v>60.44</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="18" t="n">
         <v>44.7</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="18" t="n">
         <v>84.59</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="18" t="n">
         <v>36.59</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="18" t="n">
         <v>14.48</v>
       </c>
-      <c r="N5" s="22" t="n">
+      <c r="N5" s="19" t="n">
+        <f aca="false">SUM(B5:M5)</f>
         <v>873.25</v>
       </c>
       <c r="P5" s="9" t="n">
@@ -8386,57 +8406,70 @@
       </c>
       <c r="Q5" s="20" t="n">
         <f aca="false">(N5/$N$44)*100</f>
-        <v>99.9618702284979</v>
+        <v>99.9521720823948</v>
       </c>
       <c r="S5" s="9" t="n">
         <v>1976</v>
       </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
+      <c r="T5" s="21" t="n">
+        <f aca="false">SUM(D5:F5)</f>
+        <v>384.31</v>
+      </c>
+      <c r="U5" s="21" t="n">
+        <f aca="false">SUM(G5:I5)</f>
+        <v>226.05</v>
+      </c>
+      <c r="V5" s="21" t="n">
+        <f aca="false">SUM(J5:L5)</f>
+        <v>165.88</v>
+      </c>
+      <c r="W5" s="21" t="n">
+        <f aca="false">SUM(M5,B6,C6)</f>
+        <v>48.51</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="A6" s="9" t="n">
         <v>1977</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="18" t="n">
         <v>20.58</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="18" t="n">
         <v>13.45</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="18" t="n">
         <v>123.43</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="18" t="n">
         <v>50.29</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="18" t="n">
         <v>23.11</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="18" t="n">
         <v>148.34</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="18" t="n">
         <v>193.81</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="18" t="n">
         <v>95.23</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="18" t="n">
         <v>92.7</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="18" t="n">
         <v>72.12</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="18" t="n">
         <v>73.41</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="18" t="n">
         <v>87.36</v>
       </c>
-      <c r="N6" s="22" t="n">
+      <c r="N6" s="19" t="n">
+        <f aca="false">SUM(B6:M6)</f>
         <v>993.83</v>
       </c>
       <c r="P6" s="9" t="n">
@@ -8444,57 +8477,70 @@
       </c>
       <c r="Q6" s="20" t="n">
         <f aca="false">(N6/$N$44)*100</f>
-        <v>113.764793002219</v>
+        <v>113.753755717889</v>
       </c>
       <c r="S6" s="9" t="n">
         <v>1977</v>
       </c>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
+      <c r="T6" s="21" t="n">
+        <f aca="false">SUM(D6:F6)</f>
+        <v>196.83</v>
+      </c>
+      <c r="U6" s="21" t="n">
+        <f aca="false">SUM(G6:I6)</f>
+        <v>437.38</v>
+      </c>
+      <c r="V6" s="21" t="n">
+        <f aca="false">SUM(J6:L6)</f>
+        <v>238.23</v>
+      </c>
+      <c r="W6" s="21" t="n">
+        <f aca="false">SUM(M6,B7,C7)</f>
+        <v>168.88</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="A7" s="9" t="n">
         <v>1978</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="18" t="n">
         <v>66.29</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="18" t="n">
         <v>15.23</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="18" t="n">
         <v>26.15</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="18" t="n">
         <v>111.74</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="18" t="n">
         <v>116.07</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="18" t="n">
         <v>146.04</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="18" t="n">
         <v>85.58</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="18" t="n">
         <v>120.9</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="18" t="n">
         <v>184.9</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="18" t="n">
         <v>58.92</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="18" t="n">
         <v>58.42</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="18" t="n">
         <v>51.56</v>
       </c>
-      <c r="N7" s="22" t="n">
+      <c r="N7" s="19" t="n">
+        <f aca="false">SUM(B7:M7)</f>
         <v>1041.8</v>
       </c>
       <c r="P7" s="9" t="n">
@@ -8502,57 +8548,70 @@
       </c>
       <c r="Q7" s="20" t="n">
         <f aca="false">(N7/$N$44)*100</f>
-        <v>119.255970688862</v>
+        <v>119.244400658962</v>
       </c>
       <c r="S7" s="9" t="n">
         <v>1978</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
+      <c r="T7" s="21" t="n">
+        <f aca="false">SUM(D7:F7)</f>
+        <v>253.96</v>
+      </c>
+      <c r="U7" s="21" t="n">
+        <f aca="false">SUM(G7:I7)</f>
+        <v>352.52</v>
+      </c>
+      <c r="V7" s="21" t="n">
+        <f aca="false">SUM(J7:L7)</f>
+        <v>302.24</v>
+      </c>
+      <c r="W7" s="21" t="n">
+        <f aca="false">SUM(M7,B8,C8)</f>
+        <v>195.34</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
       <c r="A8" s="9" t="n">
         <v>1979</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="18" t="n">
         <v>112.78</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="18" t="n">
         <v>31</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="18" t="n">
         <v>101.85</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="18" t="n">
         <v>189.98</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="18" t="n">
         <v>47.5</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="18" t="n">
         <v>61.98</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="18" t="n">
         <v>27.94</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="18" t="n">
         <v>115.34</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="18" t="n">
         <v>0.5</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="18" t="n">
         <v>67.05</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="18" t="n">
         <v>84.58</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="18" t="n">
         <v>56.9</v>
       </c>
-      <c r="N8" s="22" t="n">
+      <c r="N8" s="19" t="n">
+        <f aca="false">SUM(B8:M8)</f>
         <v>897.4</v>
       </c>
       <c r="P8" s="9" t="n">
@@ -8560,57 +8619,70 @@
       </c>
       <c r="Q8" s="20" t="n">
         <f aca="false">(N8/$N$44)*100</f>
-        <v>102.726346799947</v>
+        <v>102.716380448601</v>
       </c>
       <c r="S8" s="9" t="n">
         <v>1979</v>
       </c>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
+      <c r="T8" s="21" t="n">
+        <f aca="false">SUM(D8:F8)</f>
+        <v>339.33</v>
+      </c>
+      <c r="U8" s="21" t="n">
+        <f aca="false">SUM(G8:I8)</f>
+        <v>205.26</v>
+      </c>
+      <c r="V8" s="21" t="n">
+        <f aca="false">SUM(J8:L8)</f>
+        <v>152.13</v>
+      </c>
+      <c r="W8" s="21" t="n">
+        <f aca="false">SUM(M8,B9,C9)</f>
+        <v>138.93</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
       <c r="A9" s="9" t="n">
         <v>1980</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="18" t="n">
         <v>36.07</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="18" t="n">
         <v>45.96</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="18" t="n">
         <v>31.74</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="18" t="n">
         <v>116.34</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="18" t="n">
         <v>65.77</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="18" t="n">
         <v>129.54</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="18" t="n">
         <v>87.62</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="18" t="n">
         <v>160.28</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="18" t="n">
         <v>91.2</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="18" t="n">
         <v>41.91</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="18" t="n">
         <v>42.41</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="18" t="n">
         <v>82.05</v>
       </c>
-      <c r="N9" s="22" t="n">
+      <c r="N9" s="19" t="n">
+        <f aca="false">SUM(B9:M9)</f>
         <v>930.89</v>
       </c>
       <c r="P9" s="9" t="n">
@@ -8618,57 +8690,70 @@
       </c>
       <c r="Q9" s="20" t="n">
         <f aca="false">(N9/$N$44)*100</f>
-        <v>106.559983254516</v>
+        <v>106.549644969689</v>
       </c>
       <c r="S9" s="9" t="n">
         <v>1980</v>
       </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
+      <c r="T9" s="21" t="n">
+        <f aca="false">SUM(D9:F9)</f>
+        <v>213.85</v>
+      </c>
+      <c r="U9" s="21" t="n">
+        <f aca="false">SUM(G9:I9)</f>
+        <v>377.44</v>
+      </c>
+      <c r="V9" s="21" t="n">
+        <f aca="false">SUM(J9:L9)</f>
+        <v>175.52</v>
+      </c>
+      <c r="W9" s="21" t="n">
+        <f aca="false">SUM(M9,B10,C10)</f>
+        <v>137.16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
       <c r="A10" s="9" t="n">
         <v>1981</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="18" t="n">
         <v>8.13</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="18" t="n">
         <v>46.98</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="18" t="n">
         <v>14.74</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="18" t="n">
         <v>128.27</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="18" t="n">
         <v>97.04</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="18" t="n">
         <v>45.98</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="18" t="n">
         <v>108.47</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="18" t="n">
         <v>85.6</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="18" t="n">
         <v>140.22</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="18" t="n">
         <v>76.21</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="L10" s="18" t="n">
         <v>46.24</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="18" t="n">
         <v>20.82</v>
       </c>
-      <c r="N10" s="22" t="n">
+      <c r="N10" s="19" t="n">
+        <f aca="false">SUM(B10:M10)</f>
         <v>818.7</v>
       </c>
       <c r="P10" s="9" t="n">
@@ -8676,57 +8761,70 @@
       </c>
       <c r="Q10" s="20" t="n">
         <f aca="false">(N10/$N$44)*100</f>
-        <v>93.7174728383295</v>
+        <v>93.7083805140071</v>
       </c>
       <c r="S10" s="9" t="n">
         <v>1981</v>
       </c>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
+      <c r="T10" s="21" t="n">
+        <f aca="false">SUM(D10:F10)</f>
+        <v>240.05</v>
+      </c>
+      <c r="U10" s="21" t="n">
+        <f aca="false">SUM(G10:I10)</f>
+        <v>240.05</v>
+      </c>
+      <c r="V10" s="21" t="n">
+        <f aca="false">SUM(J10:L10)</f>
+        <v>262.67</v>
+      </c>
+      <c r="W10" s="21" t="n">
+        <f aca="false">SUM(M10,B11,C11)</f>
+        <v>121.15</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
       <c r="A11" s="9" t="n">
         <v>1982</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="18" t="n">
         <v>76.2</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="18" t="n">
         <v>24.13</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="18" t="n">
         <v>93.98</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="18" t="n">
         <v>139.95</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="18" t="n">
         <v>77.96</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="18" t="n">
         <v>69.35</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="18" t="n">
         <v>132.62</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="18" t="n">
         <v>105.92</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="18" t="n">
         <v>17.51</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="18" t="n">
         <v>80</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="L11" s="18" t="n">
         <v>139.94</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="M11" s="18" t="n">
         <v>113.03</v>
       </c>
-      <c r="N11" s="22" t="n">
+      <c r="N11" s="19" t="n">
+        <f aca="false">SUM(B11:M11)</f>
         <v>1070.59</v>
       </c>
       <c r="P11" s="9" t="n">
@@ -8734,57 +8832,70 @@
       </c>
       <c r="Q11" s="20" t="n">
         <f aca="false">(N11/$N$44)*100</f>
-        <v>122.551593069485</v>
+        <v>122.539703303397</v>
       </c>
       <c r="S11" s="9" t="n">
         <v>1982</v>
       </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
+      <c r="T11" s="21" t="n">
+        <f aca="false">SUM(D11:F11)</f>
+        <v>311.89</v>
+      </c>
+      <c r="U11" s="21" t="n">
+        <f aca="false">SUM(G11:I11)</f>
+        <v>307.89</v>
+      </c>
+      <c r="V11" s="21" t="n">
+        <f aca="false">SUM(J11:L11)</f>
+        <v>237.45</v>
+      </c>
+      <c r="W11" s="21" t="n">
+        <f aca="false">SUM(M11,B12,C12)</f>
+        <v>199.38</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
       <c r="A12" s="9" t="n">
         <v>1983</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="18" t="n">
         <v>21.84</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="18" t="n">
         <v>64.51</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="18" t="n">
         <v>114.29</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="18" t="n">
         <v>126.5</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="18" t="n">
         <v>158.75</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="18" t="n">
         <v>39.62</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="18" t="n">
         <v>43.93</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="18" t="n">
         <v>187.44</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="18" t="n">
         <v>80.77</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="18" t="n">
         <v>77.47</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="18" t="n">
         <v>112.25</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="18" t="n">
         <v>77.72</v>
       </c>
-      <c r="N12" s="22" t="n">
+      <c r="N12" s="19" t="n">
+        <f aca="false">SUM(B12:M12)</f>
         <v>1105.09</v>
       </c>
       <c r="P12" s="9" t="n">
@@ -8792,33 +8903,70 @@
       </c>
       <c r="Q12" s="20" t="n">
         <f aca="false">(N12/$N$44)*100</f>
-        <v>126.500845314413</v>
+        <v>126.488572397977</v>
       </c>
       <c r="S12" s="9" t="n">
         <v>1983</v>
       </c>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
+      <c r="T12" s="21" t="n">
+        <f aca="false">SUM(D12:F12)</f>
+        <v>399.54</v>
+      </c>
+      <c r="U12" s="21" t="n">
+        <f aca="false">SUM(G12:I12)</f>
+        <v>270.99</v>
+      </c>
+      <c r="V12" s="21" t="n">
+        <f aca="false">SUM(J12:L12)</f>
+        <v>270.49</v>
+      </c>
+      <c r="W12" s="21" t="n">
+        <f aca="false">SUM(M12,B13,C13)</f>
+        <v>131.84</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
       <c r="A13" s="9" t="n">
         <v>1984</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="22" t="n">
+      <c r="B13" s="18" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="D13" s="18" t="n">
+        <v>50.53</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>129.28</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>110.21</v>
+      </c>
+      <c r="G13" s="18" t="n">
+        <v>119.61</v>
+      </c>
+      <c r="H13" s="18" t="n">
+        <v>88.93</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>75.42</v>
+      </c>
+      <c r="J13" s="18" t="n">
+        <v>79.02</v>
+      </c>
+      <c r="K13" s="18" t="n">
+        <v>139.96</v>
+      </c>
+      <c r="L13" s="18" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="M13" s="18" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="N13" s="19" t="n">
+        <f aca="false">SUM(B13:M13)</f>
         <v>1069.08</v>
       </c>
       <c r="P13" s="9" t="n">
@@ -8826,33 +8974,70 @@
       </c>
       <c r="Q13" s="20" t="n">
         <f aca="false">(N13/$N$44)*100</f>
-        <v>122.378741739344</v>
+        <v>122.366868743025</v>
       </c>
       <c r="S13" s="9" t="n">
         <v>1984</v>
       </c>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
+      <c r="T13" s="21" t="n">
+        <f aca="false">SUM(D13:F13)</f>
+        <v>290.02</v>
+      </c>
+      <c r="U13" s="21" t="n">
+        <f aca="false">SUM(G13:I13)</f>
+        <v>283.96</v>
+      </c>
+      <c r="V13" s="21" t="n">
+        <f aca="false">SUM(J13:L13)</f>
+        <v>330.48</v>
+      </c>
+      <c r="W13" s="21" t="n">
+        <f aca="false">SUM(M13,B14,C14)</f>
+        <v>246.64</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
       <c r="A14" s="9" t="n">
         <v>1985</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="22" t="n">
+      <c r="B14" s="18" t="n">
+        <v>72.9</v>
+      </c>
+      <c r="C14" s="18" t="n">
+        <v>63.24</v>
+      </c>
+      <c r="D14" s="18" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E14" s="18" t="n">
+        <v>53.83</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>70.09</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>37.08</v>
+      </c>
+      <c r="H14" s="18" t="n">
+        <v>56.12</v>
+      </c>
+      <c r="I14" s="18" t="n">
+        <v>66.53</v>
+      </c>
+      <c r="J14" s="18" t="n">
+        <v>85.84</v>
+      </c>
+      <c r="K14" s="18" t="n">
+        <v>108.94</v>
+      </c>
+      <c r="L14" s="18" t="n">
+        <v>217.44</v>
+      </c>
+      <c r="M14" s="18" t="n">
+        <v>72.64</v>
+      </c>
+      <c r="N14" s="19" t="n">
+        <f aca="false">SUM(B14:M14)</f>
         <v>1000.15</v>
       </c>
       <c r="P14" s="9" t="n">
@@ -8860,33 +9045,70 @@
       </c>
       <c r="Q14" s="20" t="n">
         <f aca="false">(N14/$N$44)*100</f>
-        <v>114.488250225058</v>
+        <v>114.477142752027</v>
       </c>
       <c r="S14" s="9" t="n">
         <v>1985</v>
       </c>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
+      <c r="T14" s="21" t="n">
+        <f aca="false">SUM(D14:F14)</f>
+        <v>219.42</v>
+      </c>
+      <c r="U14" s="21" t="n">
+        <f aca="false">SUM(G14:I14)</f>
+        <v>159.73</v>
+      </c>
+      <c r="V14" s="21" t="n">
+        <f aca="false">SUM(J14:L14)</f>
+        <v>412.22</v>
+      </c>
+      <c r="W14" s="21" t="n">
+        <f aca="false">SUM(M14,B15,C15)</f>
+        <v>200.67</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="15">
       <c r="A15" s="9" t="n">
         <v>1986</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="22" t="n">
+      <c r="B15" s="18" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="C15" s="18" t="n">
+        <v>104.15</v>
+      </c>
+      <c r="D15" s="18" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>49.79</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>96.01</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="H15" s="18" t="n">
+        <v>147.83</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>236.23</v>
+      </c>
+      <c r="J15" s="18" t="n">
+        <v>118.11</v>
+      </c>
+      <c r="K15" s="18" t="n">
+        <v>60.96</v>
+      </c>
+      <c r="L15" s="18" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="M15" s="18" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="N15" s="19" t="n">
+        <f aca="false">SUM(B15:M15)</f>
         <v>1057.42</v>
       </c>
       <c r="P15" s="9" t="n">
@@ -8894,33 +9116,70 @@
       </c>
       <c r="Q15" s="20" t="n">
         <f aca="false">(N15/$N$44)*100</f>
-        <v>121.044008951638</v>
+        <v>121.032265449031</v>
       </c>
       <c r="S15" s="9" t="n">
         <v>1986</v>
       </c>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="T15" s="21" t="n">
+        <f aca="false">SUM(D15:F15)</f>
+        <v>196.34</v>
+      </c>
+      <c r="U15" s="21" t="n">
+        <f aca="false">SUM(G15:I15)</f>
+        <v>505.46</v>
+      </c>
+      <c r="V15" s="21" t="n">
+        <f aca="false">SUM(J15:L15)</f>
+        <v>203.97</v>
+      </c>
+      <c r="W15" s="21" t="n">
+        <f aca="false">SUM(M15,B16,C16)</f>
+        <v>57.14</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
       <c r="A16" s="9" t="n">
         <v>1987</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="22" t="n">
+      <c r="B16" s="18" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="C16" s="18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D16" s="18" t="n">
+        <v>75.17</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>97.79</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>88.91</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <v>70.36</v>
+      </c>
+      <c r="H16" s="18" t="n">
+        <v>132.86</v>
+      </c>
+      <c r="I16" s="18" t="n">
+        <v>231.12</v>
+      </c>
+      <c r="J16" s="18" t="n">
+        <v>53.85</v>
+      </c>
+      <c r="K16" s="18" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="L16" s="18" t="n">
+        <v>83.82</v>
+      </c>
+      <c r="M16" s="18" t="n">
+        <v>144.77</v>
+      </c>
+      <c r="N16" s="19" t="n">
+        <f aca="false">SUM(B16:M16)</f>
         <v>1046.97</v>
       </c>
       <c r="P16" s="9" t="n">
@@ -8928,33 +9187,70 @@
       </c>
       <c r="Q16" s="20" t="n">
         <f aca="false">(N16/$N$44)*100</f>
-        <v>119.847786170204</v>
+        <v>119.836158723281</v>
       </c>
       <c r="S16" s="9" t="n">
         <v>1987</v>
       </c>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
+      <c r="T16" s="21" t="n">
+        <f aca="false">SUM(D16:F16)</f>
+        <v>261.87</v>
+      </c>
+      <c r="U16" s="21" t="n">
+        <f aca="false">SUM(G16:I16)</f>
+        <v>434.34</v>
+      </c>
+      <c r="V16" s="21" t="n">
+        <f aca="false">SUM(J16:L16)</f>
+        <v>172.47</v>
+      </c>
+      <c r="W16" s="21" t="n">
+        <f aca="false">SUM(M16,B17,C17)</f>
+        <v>275.58</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="17">
       <c r="A17" s="9" t="n">
         <v>1988</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="22" t="n">
+      <c r="B17" s="18" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="C17" s="18" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="D17" s="18" t="n">
+        <v>40.64</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>85.86</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H17" s="18" t="n">
+        <v>137.42</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="19" t="n">
+        <f aca="false">SUM(B17:M17)</f>
         <v>428.02</v>
       </c>
       <c r="P17" s="9" t="n">
@@ -8962,33 +9258,70 @@
       </c>
       <c r="Q17" s="20" t="n">
         <f aca="false">(N17/$N$44)*100</f>
-        <v>48.9959114746083</v>
+        <v>48.9911579670274</v>
       </c>
       <c r="S17" s="9" t="n">
         <v>1988</v>
       </c>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
+      <c r="T17" s="21" t="n">
+        <f aca="false">SUM(D17:F17)</f>
+        <v>141.5</v>
+      </c>
+      <c r="U17" s="21" t="n">
+        <f aca="false">SUM(G17:I17)</f>
+        <v>155.71</v>
+      </c>
+      <c r="V17" s="21" t="n">
+        <f aca="false">SUM(J17:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="21" t="n">
+        <f aca="false">SUM(M17,B18,C18)</f>
+        <v>42.4</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="18">
       <c r="A18" s="9" t="n">
         <v>1989</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="22" t="n">
+      <c r="B18" s="18" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="C18" s="18" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="D18" s="18" t="n">
+        <v>81.02</v>
+      </c>
+      <c r="E18" s="18" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>80.76</v>
+      </c>
+      <c r="G18" s="18" t="n">
+        <v>58.41</v>
+      </c>
+      <c r="H18" s="18" t="n">
+        <v>184.15</v>
+      </c>
+      <c r="I18" s="18" t="n">
+        <v>150.38</v>
+      </c>
+      <c r="J18" s="18" t="n">
+        <v>98.05</v>
+      </c>
+      <c r="K18" s="18" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="L18" s="18" t="n">
+        <v>50.02</v>
+      </c>
+      <c r="M18" s="18" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="N18" s="19" t="n">
+        <f aca="false">SUM(B18:M18)</f>
         <v>872.41</v>
       </c>
       <c r="P18" s="9" t="n">
@@ -8996,33 +9329,70 @@
       </c>
       <c r="Q18" s="20" t="n">
         <f aca="false">(N18/$N$44)*100</f>
-        <v>99.8657145216649</v>
+        <v>99.8560257044398</v>
       </c>
       <c r="S18" s="9" t="n">
         <v>1989</v>
       </c>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
+      <c r="T18" s="21" t="n">
+        <f aca="false">SUM(D18:F18)</f>
+        <v>199.35</v>
+      </c>
+      <c r="U18" s="21" t="n">
+        <f aca="false">SUM(G18:I18)</f>
+        <v>392.94</v>
+      </c>
+      <c r="V18" s="21" t="n">
+        <f aca="false">SUM(J18:L18)</f>
+        <v>225.29</v>
+      </c>
+      <c r="W18" s="21" t="n">
+        <f aca="false">SUM(M18,B19,C19)</f>
+        <v>131.53</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="19">
       <c r="A19" s="9" t="n">
         <v>1990</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="22" t="n">
+      <c r="B19" s="18" t="n">
+        <v>69.58</v>
+      </c>
+      <c r="C19" s="18" t="n">
+        <v>49.52</v>
+      </c>
+      <c r="D19" s="18" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="E19" s="18" t="n">
+        <v>71.1</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>213.09</v>
+      </c>
+      <c r="G19" s="18" t="n">
+        <v>123.18</v>
+      </c>
+      <c r="H19" s="18" t="n">
+        <v>85.09</v>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>122.17</v>
+      </c>
+      <c r="J19" s="18" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="K19" s="18" t="n">
+        <v>67.56</v>
+      </c>
+      <c r="L19" s="18" t="n">
+        <v>84.57</v>
+      </c>
+      <c r="M19" s="18" t="n">
+        <v>68.07</v>
+      </c>
+      <c r="N19" s="19" t="n">
+        <f aca="false">SUM(B19:M19)</f>
         <v>1077.63</v>
       </c>
       <c r="P19" s="9" t="n">
@@ -9030,33 +9400,70 @@
       </c>
       <c r="Q19" s="20" t="n">
         <f aca="false">(N19/$N$44)*100</f>
-        <v>123.357469469609</v>
+        <v>123.345501518639</v>
       </c>
       <c r="S19" s="9" t="n">
         <v>1990</v>
       </c>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
+      <c r="T19" s="21" t="n">
+        <f aca="false">SUM(D19:F19)</f>
+        <v>354.29</v>
+      </c>
+      <c r="U19" s="21" t="n">
+        <f aca="false">SUM(G19:I19)</f>
+        <v>330.44</v>
+      </c>
+      <c r="V19" s="21" t="n">
+        <f aca="false">SUM(J19:L19)</f>
+        <v>205.73</v>
+      </c>
+      <c r="W19" s="21" t="n">
+        <f aca="false">SUM(M19,B20,C20)</f>
+        <v>117.85</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
       <c r="A20" s="9" t="n">
         <v>1991</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="22" t="n">
+      <c r="B20" s="18" t="n">
+        <v>39.88</v>
+      </c>
+      <c r="C20" s="18" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D20" s="18" t="n">
+        <v>104.91</v>
+      </c>
+      <c r="E20" s="18" t="n">
+        <v>98.79</v>
+      </c>
+      <c r="F20" s="18" t="n">
+        <v>108.44</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <v>58.16</v>
+      </c>
+      <c r="H20" s="18" t="n">
+        <v>110.99</v>
+      </c>
+      <c r="I20" s="18" t="n">
+        <v>55.62</v>
+      </c>
+      <c r="J20" s="18" t="n">
+        <v>113.79</v>
+      </c>
+      <c r="K20" s="18" t="n">
+        <v>182.62</v>
+      </c>
+      <c r="L20" s="18" t="n">
+        <v>87.62</v>
+      </c>
+      <c r="M20" s="18" t="n">
+        <v>46.48</v>
+      </c>
+      <c r="N20" s="19" t="n">
+        <f aca="false">SUM(B20:M20)</f>
         <v>1017.2</v>
       </c>
       <c r="P20" s="9" t="n">
@@ -9064,33 +9471,70 @@
       </c>
       <c r="Q20" s="20" t="n">
         <f aca="false">(N20/$N$44)*100</f>
-        <v>116.43998213161</v>
+        <v>116.428685304566</v>
       </c>
       <c r="S20" s="9" t="n">
         <v>1991</v>
       </c>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
+      <c r="T20" s="21" t="n">
+        <f aca="false">SUM(D20:F20)</f>
+        <v>312.14</v>
+      </c>
+      <c r="U20" s="21" t="n">
+        <f aca="false">SUM(G20:I20)</f>
+        <v>224.77</v>
+      </c>
+      <c r="V20" s="21" t="n">
+        <f aca="false">SUM(J20:L20)</f>
+        <v>384.03</v>
+      </c>
+      <c r="W20" s="21" t="n">
+        <f aca="false">SUM(M20,B21,C21)</f>
+        <v>122.93</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
       <c r="A21" s="9" t="n">
         <v>1992</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="22" t="n">
+      <c r="B21" s="18" t="n">
+        <v>33.78</v>
+      </c>
+      <c r="C21" s="18" t="n">
+        <v>42.67</v>
+      </c>
+      <c r="D21" s="18" t="n">
+        <v>68.05</v>
+      </c>
+      <c r="E21" s="18" t="n">
+        <v>67.06</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <v>99.56</v>
+      </c>
+      <c r="H21" s="18" t="n">
+        <v>1391.15</v>
+      </c>
+      <c r="I21" s="18" t="n">
+        <v>891.03</v>
+      </c>
+      <c r="J21" s="18" t="n">
+        <v>1103.89</v>
+      </c>
+      <c r="K21" s="18" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="L21" s="18" t="n">
+        <v>143.25</v>
+      </c>
+      <c r="M21" s="18" t="n">
+        <v>61.98</v>
+      </c>
+      <c r="N21" s="19" t="n">
+        <f aca="false">SUM(B21:M21)</f>
         <v>3967.43</v>
       </c>
       <c r="P21" s="9" t="n">
@@ -9098,33 +9542,70 @@
       </c>
       <c r="Q21" s="20" t="n">
         <f aca="false">(N21/$N$44)*100</f>
-        <v>454.155995191124</v>
+        <v>454.111933678621</v>
       </c>
       <c r="S21" s="9" t="n">
         <v>1992</v>
       </c>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
+      <c r="T21" s="21" t="n">
+        <f aca="false">SUM(D21:F21)</f>
+        <v>162.29</v>
+      </c>
+      <c r="U21" s="21" t="n">
+        <f aca="false">SUM(G21:I21)</f>
+        <v>2381.74</v>
+      </c>
+      <c r="V21" s="21" t="n">
+        <f aca="false">SUM(J21:L21)</f>
+        <v>1284.97</v>
+      </c>
+      <c r="W21" s="21" t="n">
+        <f aca="false">SUM(M21,B22,C22)</f>
+        <v>157.73</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
       <c r="A22" s="9" t="n">
         <v>1993</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="22" t="n">
+      <c r="B22" s="18" t="n">
+        <v>70.37</v>
+      </c>
+      <c r="C22" s="18" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="D22" s="18" t="n">
+        <v>48.76</v>
+      </c>
+      <c r="E22" s="18" t="n">
+        <v>197.09</v>
+      </c>
+      <c r="F22" s="18" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="H22" s="18" t="n">
+        <v>105.92</v>
+      </c>
+      <c r="I22" s="18" t="n">
+        <v>108.96</v>
+      </c>
+      <c r="J22" s="18" t="n">
+        <v>101.86</v>
+      </c>
+      <c r="K22" s="18" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="L22" s="18" t="n">
+        <v>58.41</v>
+      </c>
+      <c r="M22" s="18" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="N22" s="19" t="n">
+        <f aca="false">SUM(B22:M22)</f>
         <v>959.8</v>
       </c>
       <c r="P22" s="9" t="n">
@@ -9132,33 +9613,70 @@
       </c>
       <c r="Q22" s="20" t="n">
         <f aca="false">(N22/$N$44)*100</f>
-        <v>109.869342164686</v>
+        <v>109.858682810973</v>
       </c>
       <c r="S22" s="9" t="n">
         <v>1993</v>
       </c>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
+      <c r="T22" s="21" t="n">
+        <f aca="false">SUM(D22:F22)</f>
+        <v>287.75</v>
+      </c>
+      <c r="U22" s="21" t="n">
+        <f aca="false">SUM(G22:I22)</f>
+        <v>377.18</v>
+      </c>
+      <c r="V22" s="21" t="n">
+        <f aca="false">SUM(J22:L22)</f>
+        <v>173.47</v>
+      </c>
+      <c r="W22" s="21" t="n">
+        <f aca="false">SUM(M22,B23,C23)</f>
+        <v>169.16</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="23">
       <c r="A23" s="9" t="n">
         <v>1994</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="22" t="n">
+      <c r="B23" s="18" t="n">
+        <v>54.62</v>
+      </c>
+      <c r="C23" s="18" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="D23" s="18" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="E23" s="18" t="n">
+        <v>47.23</v>
+      </c>
+      <c r="F23" s="18" t="n">
+        <v>35.07</v>
+      </c>
+      <c r="G23" s="18" t="n">
+        <v>78.51</v>
+      </c>
+      <c r="H23" s="18" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="I23" s="18" t="n">
+        <v>148.82</v>
+      </c>
+      <c r="J23" s="18" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="K23" s="18" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="L23" s="18" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="M23" s="18" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="N23" s="19" t="n">
+        <f aca="false">SUM(B23:M23)</f>
         <v>743.41</v>
       </c>
       <c r="P23" s="9" t="n">
@@ -9166,33 +9684,70 @@
       </c>
       <c r="Q23" s="20" t="n">
         <f aca="false">(N23/$N$44)*100</f>
-        <v>85.0989452580219</v>
+        <v>85.0906890899206</v>
       </c>
       <c r="S23" s="9" t="n">
         <v>1994</v>
       </c>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
+      <c r="T23" s="21" t="n">
+        <f aca="false">SUM(D23:F23)</f>
+        <v>114.28</v>
+      </c>
+      <c r="U23" s="21" t="n">
+        <f aca="false">SUM(G23:I23)</f>
+        <v>308.86</v>
+      </c>
+      <c r="V23" s="21" t="n">
+        <f aca="false">SUM(J23:L23)</f>
+        <v>149.58</v>
+      </c>
+      <c r="W23" s="21" t="n">
+        <f aca="false">SUM(M23,B24,C24)</f>
+        <v>91.45</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="24">
       <c r="A24" s="9" t="n">
         <v>1995</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="22" t="n">
+      <c r="B24" s="18" t="n">
+        <v>57.41</v>
+      </c>
+      <c r="C24" s="18" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="D24" s="18" t="n">
+        <v>50.03</v>
+      </c>
+      <c r="E24" s="18" t="n">
+        <v>98.79</v>
+      </c>
+      <c r="F24" s="18" t="n">
+        <v>94.23</v>
+      </c>
+      <c r="G24" s="18" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="H24" s="18" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="I24" s="18" t="n">
+        <v>121.17</v>
+      </c>
+      <c r="J24" s="18" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="K24" s="18" t="n">
+        <v>96.26</v>
+      </c>
+      <c r="L24" s="18" t="n">
+        <v>96.29</v>
+      </c>
+      <c r="M24" s="18" t="n">
+        <v>8.38</v>
+      </c>
+      <c r="N24" s="19" t="n">
+        <f aca="false">SUM(B24:M24)</f>
         <v>747.53</v>
       </c>
       <c r="P24" s="9" t="n">
@@ -9200,33 +9755,70 @@
       </c>
       <c r="Q24" s="20" t="n">
         <f aca="false">(N24/$N$44)*100</f>
-        <v>85.570566105822</v>
+        <v>85.5622641817951</v>
       </c>
       <c r="S24" s="9" t="n">
         <v>1995</v>
       </c>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
+      <c r="T24" s="21" t="n">
+        <f aca="false">SUM(D24:F24)</f>
+        <v>243.05</v>
+      </c>
+      <c r="U24" s="21" t="n">
+        <f aca="false">SUM(G24:I24)</f>
+        <v>209.06</v>
+      </c>
+      <c r="V24" s="21" t="n">
+        <f aca="false">SUM(J24:L24)</f>
+        <v>222.77</v>
+      </c>
+      <c r="W24" s="21" t="n">
+        <f aca="false">SUM(M24,B25,C25)</f>
+        <v>48.5</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
       <c r="A25" s="9" t="n">
         <v>1996</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="22" t="n">
+      <c r="B25" s="18" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C25" s="18" t="n">
+        <v>8.62</v>
+      </c>
+      <c r="D25" s="18" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E25" s="18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F25" s="18" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G25" s="18" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="H25" s="18" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="I25" s="18" t="n">
+        <v>33.26</v>
+      </c>
+      <c r="J25" s="18" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="K25" s="18" t="n">
+        <v>76.96</v>
+      </c>
+      <c r="L25" s="18" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="M25" s="18" t="n">
+        <v>38.86</v>
+      </c>
+      <c r="N25" s="19" t="n">
+        <f aca="false">SUM(B25:M25)</f>
         <v>311.63</v>
       </c>
       <c r="P25" s="9" t="n">
@@ -9234,33 +9826,70 @@
       </c>
       <c r="Q25" s="20" t="n">
         <f aca="false">(N25/$N$44)*100</f>
-        <v>35.6726225242563</v>
+        <v>35.6691616215708</v>
       </c>
       <c r="S25" s="9" t="n">
         <v>1996</v>
       </c>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
+      <c r="T25" s="21" t="n">
+        <f aca="false">SUM(D25:F25)</f>
+        <v>15.75</v>
+      </c>
+      <c r="U25" s="21" t="n">
+        <f aca="false">SUM(G25:I25)</f>
+        <v>76.94</v>
+      </c>
+      <c r="V25" s="21" t="n">
+        <f aca="false">SUM(J25:L25)</f>
+        <v>139.96</v>
+      </c>
+      <c r="W25" s="21" t="n">
+        <f aca="false">SUM(M25,B26,C26)</f>
+        <v>132.05</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
       <c r="A26" s="9" t="n">
         <v>1997</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="22" t="n">
+      <c r="B26" s="18" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="C26" s="18" t="n">
+        <v>59.94</v>
+      </c>
+      <c r="D26" s="18" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="E26" s="18" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="F26" s="18" t="n">
+        <v>82.29</v>
+      </c>
+      <c r="G26" s="18" t="n">
+        <v>201.94</v>
+      </c>
+      <c r="H26" s="18" t="n">
+        <v>134.87</v>
+      </c>
+      <c r="I26" s="18" t="n">
+        <v>96</v>
+      </c>
+      <c r="J26" s="18" t="n">
+        <v>73.66</v>
+      </c>
+      <c r="K26" s="18" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L26" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="18" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="N26" s="19" t="n">
+        <f aca="false">SUM(B26:M26)</f>
         <v>737.31</v>
       </c>
       <c r="P26" s="9" t="n">
@@ -9268,33 +9897,70 @@
       </c>
       <c r="Q26" s="20" t="n">
         <f aca="false">(N26/$N$44)*100</f>
-        <v>84.4006716726868</v>
+        <v>84.3924832500092</v>
       </c>
       <c r="S26" s="9" t="n">
         <v>1997</v>
       </c>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
+      <c r="T26" s="21" t="n">
+        <f aca="false">SUM(D26:F26)</f>
+        <v>124.95</v>
+      </c>
+      <c r="U26" s="21" t="n">
+        <f aca="false">SUM(G26:I26)</f>
+        <v>432.81</v>
+      </c>
+      <c r="V26" s="21" t="n">
+        <f aca="false">SUM(J26:L26)</f>
+        <v>74.17</v>
+      </c>
+      <c r="W26" s="21" t="n">
+        <f aca="false">SUM(M26,B27,C27)</f>
+        <v>119.38</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
       <c r="A27" s="9" t="n">
         <v>1998</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="22" t="n">
+      <c r="B27" s="18" t="n">
+        <v>49.02</v>
+      </c>
+      <c r="C27" s="18" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="D27" s="18" t="n">
+        <v>63.74</v>
+      </c>
+      <c r="E27" s="18" t="n">
+        <v>118.63</v>
+      </c>
+      <c r="F27" s="18" t="n">
+        <v>78.47</v>
+      </c>
+      <c r="G27" s="18" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="H27" s="18" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="I27" s="18" t="n">
+        <v>151.62</v>
+      </c>
+      <c r="J27" s="18" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="K27" s="18" t="n">
+        <v>74.67</v>
+      </c>
+      <c r="L27" s="18" t="n">
+        <v>61.72</v>
+      </c>
+      <c r="M27" s="18" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="N27" s="19" t="n">
+        <f aca="false">SUM(B27:M27)</f>
         <v>815.54</v>
       </c>
       <c r="P27" s="9" t="n">
@@ -9302,33 +9968,70 @@
       </c>
       <c r="Q27" s="20" t="n">
         <f aca="false">(N27/$N$44)*100</f>
-        <v>93.35574422691</v>
+        <v>93.3466869969382</v>
       </c>
       <c r="S27" s="9" t="n">
         <v>1998</v>
       </c>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
+      <c r="T27" s="21" t="n">
+        <f aca="false">SUM(D27:F27)</f>
+        <v>260.84</v>
+      </c>
+      <c r="U27" s="21" t="n">
+        <f aca="false">SUM(G27:I27)</f>
+        <v>248.13</v>
+      </c>
+      <c r="V27" s="21" t="n">
+        <f aca="false">SUM(J27:L27)</f>
+        <v>178.04</v>
+      </c>
+      <c r="W27" s="21" t="n">
+        <f aca="false">SUM(M27,B28,C28)</f>
+        <v>21.34</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="28">
       <c r="A28" s="9" t="n">
         <v>1999</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="22" t="n">
+      <c r="B28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18" t="n">
+        <v>84.83</v>
+      </c>
+      <c r="K28" s="18" t="n">
+        <v>30.72</v>
+      </c>
+      <c r="L28" s="18" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="M28" s="18" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="N28" s="19" t="n">
+        <f aca="false">SUM(B28:M28)</f>
         <v>174.96</v>
       </c>
       <c r="P28" s="9" t="n">
@@ -9336,33 +10039,70 @@
       </c>
       <c r="Q28" s="20" t="n">
         <f aca="false">(N28/$N$44)*100</f>
-        <v>20.0278600803641</v>
+        <v>20.0259170083433</v>
       </c>
       <c r="S28" s="9" t="n">
         <v>1999</v>
       </c>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
+      <c r="T28" s="21" t="n">
+        <f aca="false">SUM(D28:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="21" t="n">
+        <f aca="false">SUM(G28:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="21" t="n">
+        <f aca="false">SUM(J28:L28)</f>
+        <v>133.84</v>
+      </c>
+      <c r="W28" s="21" t="n">
+        <f aca="false">SUM(M28,B29,C29)</f>
+        <v>91.1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="29">
       <c r="A29" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="22" t="n">
+      <c r="B29" s="18" t="n">
+        <v>33.49</v>
+      </c>
+      <c r="C29" s="18" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D29" s="18" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="E29" s="18" t="n">
+        <v>87.88</v>
+      </c>
+      <c r="F29" s="18" t="n">
+        <v>182.36</v>
+      </c>
+      <c r="G29" s="18" t="n">
+        <v>96.51</v>
+      </c>
+      <c r="H29" s="18" t="n">
+        <v>87.35</v>
+      </c>
+      <c r="I29" s="18" t="n">
+        <v>38.34</v>
+      </c>
+      <c r="J29" s="18" t="n">
+        <v>194.82</v>
+      </c>
+      <c r="K29" s="18" t="n">
+        <v>29.95</v>
+      </c>
+      <c r="L29" s="18" t="n">
+        <v>72.38</v>
+      </c>
+      <c r="M29" s="18" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="N29" s="19" t="n">
+        <f aca="false">SUM(B29:M29)</f>
         <v>921.58</v>
       </c>
       <c r="P29" s="9" t="n">
@@ -9370,33 +10110,70 @@
       </c>
       <c r="Q29" s="20" t="n">
         <f aca="false">(N29/$N$44)*100</f>
-        <v>105.494257503784</v>
+        <v>105.484022614021</v>
       </c>
       <c r="S29" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
+      <c r="T29" s="21" t="n">
+        <f aca="false">SUM(D29:F29)</f>
+        <v>299.95</v>
+      </c>
+      <c r="U29" s="21" t="n">
+        <f aca="false">SUM(G29:I29)</f>
+        <v>222.2</v>
+      </c>
+      <c r="V29" s="21" t="n">
+        <f aca="false">SUM(J29:L29)</f>
+        <v>297.15</v>
+      </c>
+      <c r="W29" s="21" t="n">
+        <f aca="false">SUM(M29,B30,C30)</f>
+        <v>178.98</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="30">
       <c r="A30" s="9" t="n">
         <v>2001</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="22" t="n">
+      <c r="B30" s="18" t="n">
+        <v>40.09</v>
+      </c>
+      <c r="C30" s="18" t="n">
+        <v>86.59</v>
+      </c>
+      <c r="D30" s="18" t="n">
+        <v>28.93</v>
+      </c>
+      <c r="E30" s="18" t="n">
+        <v>91.69</v>
+      </c>
+      <c r="F30" s="18" t="n">
+        <v>119.35</v>
+      </c>
+      <c r="G30" s="18" t="n">
+        <v>110.23</v>
+      </c>
+      <c r="H30" s="18" t="n">
+        <v>49.53</v>
+      </c>
+      <c r="I30" s="18" t="n">
+        <v>139.44</v>
+      </c>
+      <c r="J30" s="18" t="n">
+        <v>93.72</v>
+      </c>
+      <c r="K30" s="18" t="n">
+        <v>114.31</v>
+      </c>
+      <c r="L30" s="18" t="n">
+        <v>31.76</v>
+      </c>
+      <c r="M30" s="18" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="N30" s="19" t="n">
+        <f aca="false">SUM(B30:M30)</f>
         <v>942.94</v>
       </c>
       <c r="P30" s="9" t="n">
@@ -9404,33 +10181,70 @@
       </c>
       <c r="Q30" s="20" t="n">
         <f aca="false">(N30/$N$44)*100</f>
-        <v>107.939359763252</v>
+        <v>107.928887653448</v>
       </c>
       <c r="S30" s="9" t="n">
         <v>2001</v>
       </c>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
+      <c r="T30" s="21" t="n">
+        <f aca="false">SUM(D30:F30)</f>
+        <v>239.97</v>
+      </c>
+      <c r="U30" s="21" t="n">
+        <f aca="false">SUM(G30:I30)</f>
+        <v>299.2</v>
+      </c>
+      <c r="V30" s="21" t="n">
+        <f aca="false">SUM(J30:L30)</f>
+        <v>239.79</v>
+      </c>
+      <c r="W30" s="21" t="n">
+        <f aca="false">SUM(M30,B31,C31)</f>
+        <v>94.94</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="31">
       <c r="A31" s="9" t="n">
         <v>2002</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="22" t="n">
+      <c r="B31" s="18" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="C31" s="18" t="n">
+        <v>40.36</v>
+      </c>
+      <c r="D31" s="18" t="n">
+        <v>38.07</v>
+      </c>
+      <c r="E31" s="18" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="F31" s="18" t="n">
+        <v>51.28</v>
+      </c>
+      <c r="G31" s="18" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="H31" s="18" t="n">
+        <v>61.71</v>
+      </c>
+      <c r="I31" s="18" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="J31" s="18" t="n">
+        <v>71.1</v>
+      </c>
+      <c r="K31" s="18" t="n">
+        <v>35.28</v>
+      </c>
+      <c r="L31" s="18" t="n">
+        <v>23.62</v>
+      </c>
+      <c r="M31" s="18" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="N31" s="19" t="n">
+        <f aca="false">SUM(B31:M31)</f>
         <v>643.7</v>
       </c>
       <c r="P31" s="9" t="n">
@@ -9438,33 +10252,70 @@
       </c>
       <c r="Q31" s="20" t="n">
         <f aca="false">(N31/$N$44)*100</f>
-        <v>73.6850339147828</v>
+        <v>73.6778851067135</v>
       </c>
       <c r="S31" s="9" t="n">
         <v>2002</v>
       </c>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
+      <c r="T31" s="21" t="n">
+        <f aca="false">SUM(D31:F31)</f>
+        <v>188.38</v>
+      </c>
+      <c r="U31" s="21" t="n">
+        <f aca="false">SUM(G31:I31)</f>
+        <v>253.21</v>
+      </c>
+      <c r="V31" s="21" t="n">
+        <f aca="false">SUM(J31:L31)</f>
+        <v>130</v>
+      </c>
+      <c r="W31" s="21" t="n">
+        <f aca="false">SUM(M31,B32,C32)</f>
+        <v>29.96</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="32">
       <c r="A32" s="9" t="n">
         <v>2003</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="22" t="n">
+      <c r="B32" s="18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C32" s="18" t="n">
+        <v>8.89</v>
+      </c>
+      <c r="D32" s="18" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="E32" s="18" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="F32" s="18" t="n">
+        <v>128.27</v>
+      </c>
+      <c r="G32" s="18" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="H32" s="18" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="I32" s="18" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="J32" s="18" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="K32" s="18" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="L32" s="18" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="M32" s="18" t="n">
+        <v>51.56</v>
+      </c>
+      <c r="N32" s="19" t="n">
+        <f aca="false">SUM(B32:M32)</f>
         <v>566.36</v>
       </c>
       <c r="P32" s="9" t="n">
@@ -9472,33 +10323,70 @@
       </c>
       <c r="Q32" s="20" t="n">
         <f aca="false">(N32/$N$44)*100</f>
-        <v>64.8318406213708</v>
+        <v>64.8255507364273</v>
       </c>
       <c r="S32" s="9" t="n">
         <v>2003</v>
       </c>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
+      <c r="T32" s="21" t="n">
+        <f aca="false">SUM(D32:F32)</f>
+        <v>204.21</v>
+      </c>
+      <c r="U32" s="21" t="n">
+        <f aca="false">SUM(G32:I32)</f>
+        <v>120.63</v>
+      </c>
+      <c r="V32" s="21" t="n">
+        <f aca="false">SUM(J32:L32)</f>
+        <v>174.47</v>
+      </c>
+      <c r="W32" s="21" t="n">
+        <f aca="false">SUM(M32,B33,C33)</f>
+        <v>71.1</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="33">
       <c r="A33" s="9" t="n">
         <v>2004</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="22" t="n">
+      <c r="B33" s="18" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="C33" s="18" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="D33" s="18" t="n">
+        <v>98.03</v>
+      </c>
+      <c r="E33" s="18" t="n">
+        <v>58.92</v>
+      </c>
+      <c r="F33" s="18" t="n">
+        <v>227.09</v>
+      </c>
+      <c r="G33" s="18" t="n">
+        <v>111.49</v>
+      </c>
+      <c r="H33" s="18" t="n">
+        <v>105.66</v>
+      </c>
+      <c r="I33" s="18" t="n">
+        <v>88.88</v>
+      </c>
+      <c r="J33" s="18" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="K33" s="18" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="L33" s="18" t="n">
+        <v>63.25</v>
+      </c>
+      <c r="M33" s="18" t="n">
+        <v>46.71</v>
+      </c>
+      <c r="N33" s="19" t="n">
+        <f aca="false">SUM(B33:M33)</f>
         <v>867.55</v>
       </c>
       <c r="P33" s="9" t="n">
@@ -9506,33 +10394,70 @@
       </c>
       <c r="Q33" s="20" t="n">
         <f aca="false">(N33/$N$44)*100</f>
-        <v>99.3093850749881</v>
+        <v>99.2997502319858</v>
       </c>
       <c r="S33" s="9" t="n">
         <v>2004</v>
       </c>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
+      <c r="T33" s="21" t="n">
+        <f aca="false">SUM(D33:F33)</f>
+        <v>384.04</v>
+      </c>
+      <c r="U33" s="21" t="n">
+        <f aca="false">SUM(G33:I33)</f>
+        <v>306.03</v>
+      </c>
+      <c r="V33" s="21" t="n">
+        <f aca="false">SUM(J33:L33)</f>
+        <v>111.23</v>
+      </c>
+      <c r="W33" s="21" t="n">
+        <f aca="false">SUM(M33,B34,C34)</f>
+        <v>184.12</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="34">
       <c r="A34" s="9" t="n">
         <v>2005</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="22" t="n">
+      <c r="B34" s="18" t="n">
+        <v>86.36</v>
+      </c>
+      <c r="C34" s="18" t="n">
+        <v>51.05</v>
+      </c>
+      <c r="D34" s="18" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="E34" s="18" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="F34" s="18" t="n">
+        <v>66.53</v>
+      </c>
+      <c r="G34" s="18" t="n">
+        <v>56.63</v>
+      </c>
+      <c r="H34" s="18" t="n">
+        <v>79.26</v>
+      </c>
+      <c r="I34" s="18" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="J34" s="18" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="K34" s="18" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="L34" s="18" t="n">
+        <v>49.28</v>
+      </c>
+      <c r="M34" s="18" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="N34" s="19" t="n">
+        <f aca="false">SUM(B34:M34)</f>
         <v>645.63</v>
       </c>
       <c r="P34" s="9" t="n">
@@ -9540,33 +10465,70 @@
       </c>
       <c r="Q34" s="20" t="n">
         <f aca="false">(N34/$N$44)*100</f>
-        <v>73.9059630983396</v>
+        <v>73.8987928560625</v>
       </c>
       <c r="S34" s="9" t="n">
         <v>2005</v>
       </c>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
+      <c r="T34" s="21" t="n">
+        <f aca="false">SUM(D34:F34)</f>
+        <v>121.64</v>
+      </c>
+      <c r="U34" s="21" t="n">
+        <f aca="false">SUM(G34:I34)</f>
+        <v>171.7</v>
+      </c>
+      <c r="V34" s="21" t="n">
+        <f aca="false">SUM(J34:L34)</f>
+        <v>182.87</v>
+      </c>
+      <c r="W34" s="21" t="n">
+        <f aca="false">SUM(M34,B35,C35)</f>
+        <v>120.64</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="35">
       <c r="A35" s="9" t="n">
         <v>2006</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="22" t="n">
+      <c r="B35" s="18" t="n">
+        <v>65.77</v>
+      </c>
+      <c r="C35" s="18" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="D35" s="18" t="n">
+        <v>90.67</v>
+      </c>
+      <c r="E35" s="18" t="n">
+        <v>95.02</v>
+      </c>
+      <c r="F35" s="18" t="n">
+        <v>112</v>
+      </c>
+      <c r="G35" s="18" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="H35" s="18" t="n">
+        <v>140.45</v>
+      </c>
+      <c r="I35" s="18" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="J35" s="18" t="n">
+        <v>100.83</v>
+      </c>
+      <c r="K35" s="18" t="n">
+        <v>85.85</v>
+      </c>
+      <c r="L35" s="18" t="n">
+        <v>69.34</v>
+      </c>
+      <c r="M35" s="18" t="n">
+        <v>73.91</v>
+      </c>
+      <c r="N35" s="19" t="n">
+        <f aca="false">SUM(B35:M35)</f>
         <v>978.36</v>
       </c>
       <c r="P35" s="9" t="n">
@@ -9574,33 +10536,70 @@
       </c>
       <c r="Q35" s="20" t="n">
         <f aca="false">(N35/$N$44)*100</f>
-        <v>111.993925401378</v>
+        <v>111.983059923884</v>
       </c>
       <c r="S35" s="9" t="n">
         <v>2006</v>
       </c>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
+      <c r="T35" s="21" t="n">
+        <f aca="false">SUM(D35:F35)</f>
+        <v>297.69</v>
+      </c>
+      <c r="U35" s="21" t="n">
+        <f aca="false">SUM(G35:I35)</f>
+        <v>262.11</v>
+      </c>
+      <c r="V35" s="21" t="n">
+        <f aca="false">SUM(J35:L35)</f>
+        <v>256.02</v>
+      </c>
+      <c r="W35" s="21" t="n">
+        <f aca="false">SUM(M35,B36,C36)</f>
+        <v>145.04</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="36">
       <c r="A36" s="9" t="n">
         <v>2007</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="22" t="n">
+      <c r="B36" s="18" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="C36" s="18" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="D36" s="18" t="n">
+        <v>72.65</v>
+      </c>
+      <c r="E36" s="18" t="n">
+        <v>113.03</v>
+      </c>
+      <c r="F36" s="18" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="G36" s="18" t="n">
+        <v>96.27</v>
+      </c>
+      <c r="H36" s="18" t="n">
+        <v>37.06</v>
+      </c>
+      <c r="I36" s="18" t="n">
+        <v>205.74</v>
+      </c>
+      <c r="J36" s="18" t="n">
+        <v>47.24</v>
+      </c>
+      <c r="K36" s="18" t="n">
+        <v>78.74</v>
+      </c>
+      <c r="L36" s="18" t="n">
+        <v>9.39</v>
+      </c>
+      <c r="M36" s="18" t="n">
+        <v>89.42</v>
+      </c>
+      <c r="N36" s="19" t="n">
+        <f aca="false">SUM(B36:M36)</f>
         <v>881.12</v>
       </c>
       <c r="P36" s="9" t="n">
@@ -9608,33 +10607,70 @@
       </c>
       <c r="Q36" s="20" t="n">
         <f aca="false">(N36/$N$44)*100</f>
-        <v>100.86275762466</v>
+        <v>100.852972075854</v>
       </c>
       <c r="S36" s="9" t="n">
         <v>2007</v>
       </c>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
+      <c r="T36" s="21" t="n">
+        <f aca="false">SUM(D36:F36)</f>
+        <v>246.13</v>
+      </c>
+      <c r="U36" s="21" t="n">
+        <f aca="false">SUM(G36:I36)</f>
+        <v>339.07</v>
+      </c>
+      <c r="V36" s="21" t="n">
+        <f aca="false">SUM(J36:L36)</f>
+        <v>135.37</v>
+      </c>
+      <c r="W36" s="21" t="n">
+        <f aca="false">SUM(M36,B37,C37)</f>
+        <v>208.53</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="37">
       <c r="A37" s="9" t="n">
         <v>2008</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="22" t="n">
+      <c r="B37" s="18" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C37" s="18" t="n">
+        <v>70.61</v>
+      </c>
+      <c r="D37" s="18" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="E37" s="18" t="n">
+        <v>127.74</v>
+      </c>
+      <c r="F37" s="18" t="n">
+        <v>74.42</v>
+      </c>
+      <c r="G37" s="18" t="n">
+        <v>311.65</v>
+      </c>
+      <c r="H37" s="18" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="I37" s="18" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="J37" s="18" t="n">
+        <v>106.68</v>
+      </c>
+      <c r="K37" s="18" t="n">
+        <v>73.92</v>
+      </c>
+      <c r="L37" s="18" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="M37" s="18" t="n">
+        <v>112.52</v>
+      </c>
+      <c r="N37" s="19" t="n">
+        <f aca="false">SUM(B37:M37)</f>
         <v>1121.09</v>
       </c>
       <c r="P37" s="9" t="n">
@@ -9642,33 +10678,70 @@
       </c>
       <c r="Q37" s="20" t="n">
         <f aca="false">(N37/$N$44)*100</f>
-        <v>128.332382587423</v>
+        <v>128.319931978073</v>
       </c>
       <c r="S37" s="9" t="n">
         <v>2008</v>
       </c>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
+      <c r="T37" s="21" t="n">
+        <f aca="false">SUM(D37:F37)</f>
+        <v>257.01</v>
+      </c>
+      <c r="U37" s="21" t="n">
+        <f aca="false">SUM(G37:I37)</f>
+        <v>415.53</v>
+      </c>
+      <c r="V37" s="21" t="n">
+        <f aca="false">SUM(J37:L37)</f>
+        <v>216.92</v>
+      </c>
+      <c r="W37" s="21" t="n">
+        <f aca="false">SUM(M37,B38,C38)</f>
+        <v>195.81</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="38">
       <c r="A38" s="9" t="n">
         <v>2009</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="22" t="n">
+      <c r="B38" s="18" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="C38" s="18" t="n">
+        <v>58.66</v>
+      </c>
+      <c r="D38" s="18" t="n">
+        <v>85.58</v>
+      </c>
+      <c r="E38" s="18" t="n">
+        <v>147.83</v>
+      </c>
+      <c r="F38" s="18" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="G38" s="18" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="H38" s="18" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="I38" s="18" t="n">
+        <v>111.76</v>
+      </c>
+      <c r="J38" s="18" t="n">
+        <v>39.88</v>
+      </c>
+      <c r="K38" s="18" t="n">
+        <v>142.48</v>
+      </c>
+      <c r="L38" s="18" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="M38" s="18" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="N38" s="19" t="n">
+        <f aca="false">SUM(B38:M38)</f>
         <v>939.49</v>
       </c>
       <c r="P38" s="9" t="n">
@@ -9676,33 +10749,70 @@
       </c>
       <c r="Q38" s="20" t="n">
         <f aca="false">(N38/$N$44)*100</f>
-        <v>107.544434538759</v>
+        <v>107.53400074399</v>
       </c>
       <c r="S38" s="9" t="n">
         <v>2009</v>
       </c>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
+      <c r="T38" s="21" t="n">
+        <f aca="false">SUM(D38:F38)</f>
+        <v>298.94</v>
+      </c>
+      <c r="U38" s="21" t="n">
+        <f aca="false">SUM(G38:I38)</f>
+        <v>266.19</v>
+      </c>
+      <c r="V38" s="21" t="n">
+        <f aca="false">SUM(J38:L38)</f>
+        <v>222.73</v>
+      </c>
+      <c r="W38" s="21" t="n">
+        <f aca="false">SUM(M38,B39,C39)</f>
+        <v>99.06</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="39">
       <c r="A39" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="22" t="n">
+      <c r="B39" s="18" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="C39" s="18" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="D39" s="18" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="E39" s="18" t="n">
+        <v>84.07</v>
+      </c>
+      <c r="F39" s="18" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="G39" s="18" t="n">
+        <v>176.28</v>
+      </c>
+      <c r="H39" s="18" t="n">
+        <v>324.63</v>
+      </c>
+      <c r="I39" s="18" t="n">
+        <v>36.07</v>
+      </c>
+      <c r="J39" s="18" t="n">
+        <v>80.74</v>
+      </c>
+      <c r="K39" s="18" t="n">
+        <v>43.93</v>
+      </c>
+      <c r="L39" s="18" t="n">
+        <v>45.21</v>
+      </c>
+      <c r="M39" s="18" t="n">
+        <v>48.51</v>
+      </c>
+      <c r="N39" s="19" t="n">
+        <f aca="false">SUM(B39:M39)</f>
         <v>982.17</v>
       </c>
       <c r="P39" s="9" t="n">
@@ -9710,33 +10820,70 @@
       </c>
       <c r="Q39" s="20" t="n">
         <f aca="false">(N39/$N$44)*100</f>
-        <v>112.430060214513</v>
+        <v>112.419152423894</v>
       </c>
       <c r="S39" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
+      <c r="T39" s="21" t="n">
+        <f aca="false">SUM(D39:F39)</f>
+        <v>196.08</v>
+      </c>
+      <c r="U39" s="21" t="n">
+        <f aca="false">SUM(G39:I39)</f>
+        <v>536.98</v>
+      </c>
+      <c r="V39" s="21" t="n">
+        <f aca="false">SUM(J39:L39)</f>
+        <v>169.88</v>
+      </c>
+      <c r="W39" s="21" t="n">
+        <f aca="false">SUM(M39,B40,C40)</f>
+        <v>131.05</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="40">
       <c r="A40" s="9" t="n">
         <v>2011</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="22" t="n">
+      <c r="B40" s="18" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="C40" s="18" t="n">
+        <v>54.35</v>
+      </c>
+      <c r="D40" s="18" t="n">
+        <v>78.22</v>
+      </c>
+      <c r="E40" s="18" t="n">
+        <v>149.09</v>
+      </c>
+      <c r="F40" s="18" t="n">
+        <v>87.62</v>
+      </c>
+      <c r="G40" s="18" t="n">
+        <v>88.65</v>
+      </c>
+      <c r="H40" s="18" t="n">
+        <v>89.66</v>
+      </c>
+      <c r="I40" s="18" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="J40" s="18" t="n">
+        <v>73.9</v>
+      </c>
+      <c r="K40" s="18" t="n">
+        <v>41.66</v>
+      </c>
+      <c r="L40" s="18" t="n">
+        <v>70.08</v>
+      </c>
+      <c r="M40" s="18" t="n">
+        <v>56.65</v>
+      </c>
+      <c r="N40" s="19" t="n">
+        <f aca="false">SUM(B40:M40)</f>
         <v>833.81</v>
       </c>
       <c r="P40" s="9" t="n">
@@ -9744,33 +10891,70 @@
       </c>
       <c r="Q40" s="20" t="n">
         <f aca="false">(N40/$N$44)*100</f>
-        <v>95.4471308505283</v>
+        <v>95.4378707174596</v>
       </c>
       <c r="S40" s="9" t="n">
         <v>2011</v>
       </c>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
+      <c r="T40" s="21" t="n">
+        <f aca="false">SUM(D40:F40)</f>
+        <v>314.93</v>
+      </c>
+      <c r="U40" s="21" t="n">
+        <f aca="false">SUM(G40:I40)</f>
+        <v>194.05</v>
+      </c>
+      <c r="V40" s="21" t="n">
+        <f aca="false">SUM(J40:L40)</f>
+        <v>185.64</v>
+      </c>
+      <c r="W40" s="21" t="n">
+        <f aca="false">SUM(M40,B41,C41)</f>
+        <v>128.77</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="41">
       <c r="A41" s="9" t="n">
         <v>2012</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="22" t="n">
+      <c r="B41" s="18" t="n">
+        <v>35.04</v>
+      </c>
+      <c r="C41" s="18" t="n">
+        <v>37.08</v>
+      </c>
+      <c r="D41" s="18" t="n">
+        <v>88.4</v>
+      </c>
+      <c r="E41" s="18" t="n">
+        <v>74.15</v>
+      </c>
+      <c r="F41" s="18" t="n">
+        <v>95.76</v>
+      </c>
+      <c r="G41" s="18" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="H41" s="18" t="n">
+        <v>90.43</v>
+      </c>
+      <c r="I41" s="18" t="n">
+        <v>69.85</v>
+      </c>
+      <c r="J41" s="18" t="n">
+        <v>58.42</v>
+      </c>
+      <c r="K41" s="18" t="n">
+        <v>73.66</v>
+      </c>
+      <c r="L41" s="18" t="n">
+        <v>8.89</v>
+      </c>
+      <c r="M41" s="18" t="n">
+        <v>98.56</v>
+      </c>
+      <c r="N41" s="19" t="n">
+        <f aca="false">SUM(B41:M41)</f>
         <v>756.65</v>
       </c>
       <c r="P41" s="9" t="n">
@@ -9778,33 +10962,70 @@
       </c>
       <c r="Q41" s="20" t="n">
         <f aca="false">(N41/$N$44)*100</f>
-        <v>86.6145423514377</v>
+        <v>86.6061391424495</v>
       </c>
       <c r="S41" s="9" t="n">
         <v>2012</v>
       </c>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
+      <c r="T41" s="21" t="n">
+        <f aca="false">SUM(D41:F41)</f>
+        <v>258.31</v>
+      </c>
+      <c r="U41" s="21" t="n">
+        <f aca="false">SUM(G41:I41)</f>
+        <v>186.69</v>
+      </c>
+      <c r="V41" s="21" t="n">
+        <f aca="false">SUM(J41:L41)</f>
+        <v>140.97</v>
+      </c>
+      <c r="W41" s="21" t="n">
+        <f aca="false">SUM(M41,B42,C42)</f>
+        <v>262.11</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="42">
       <c r="A42" s="9" t="n">
         <v>2013</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="22" t="n">
+      <c r="B42" s="18" t="n">
+        <v>83.82</v>
+      </c>
+      <c r="C42" s="18" t="n">
+        <v>79.73</v>
+      </c>
+      <c r="D42" s="18" t="n">
+        <v>42.15</v>
+      </c>
+      <c r="E42" s="18" t="n">
+        <v>182.64</v>
+      </c>
+      <c r="F42" s="18" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="G42" s="18" t="n">
+        <v>150.35</v>
+      </c>
+      <c r="H42" s="18" t="n">
+        <v>38.61</v>
+      </c>
+      <c r="I42" s="18" t="n">
+        <v>83.82</v>
+      </c>
+      <c r="J42" s="18" t="n">
+        <v>39.11</v>
+      </c>
+      <c r="K42" s="18" t="n">
+        <v>73.14</v>
+      </c>
+      <c r="L42" s="18" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="M42" s="18" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="N42" s="19" t="n">
+        <f aca="false">SUM(B42:M42)</f>
         <v>1025.82</v>
       </c>
       <c r="P42" s="9" t="n">
@@ -9812,58 +11033,323 @@
       </c>
       <c r="Q42" s="20" t="n">
         <f aca="false">(N42/$N$44)*100</f>
-        <v>117.426722837444</v>
+        <v>117.415330278342</v>
       </c>
       <c r="S42" s="9" t="n">
         <v>2013</v>
       </c>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
+      <c r="T42" s="21" t="n">
+        <f aca="false">SUM(D42:F42)</f>
+        <v>339.59</v>
+      </c>
+      <c r="U42" s="21" t="n">
+        <f aca="false">SUM(G42:I42)</f>
+        <v>272.78</v>
+      </c>
+      <c r="V42" s="21" t="n">
+        <f aca="false">SUM(J42:L42)</f>
+        <v>206.98</v>
+      </c>
+      <c r="W42" s="21" t="n">
+        <f aca="false">SUM(M42,B43,C43)</f>
+        <v>111.99</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="43">
       <c r="A43" s="9" t="n">
         <v>2014</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="22" t="n">
-        <v>826.18</v>
+      <c r="B43" s="18" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C43" s="18" t="n">
+        <v>39.87</v>
+      </c>
+      <c r="D43" s="18" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="E43" s="18" t="n">
+        <v>110.23</v>
+      </c>
+      <c r="F43" s="18" t="n">
+        <v>71.88</v>
+      </c>
+      <c r="G43" s="18" t="n">
+        <v>142.73</v>
+      </c>
+      <c r="H43" s="18" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="I43" s="18" t="n">
+        <v>144.52</v>
+      </c>
+      <c r="J43" s="18" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="K43" s="18" t="n">
+        <v>71.89</v>
+      </c>
+      <c r="L43" s="18" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="M43" s="18" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="N43" s="19" t="n">
+        <f aca="false">SUM(B43:M43)</f>
+        <v>829.74</v>
       </c>
       <c r="P43" s="9" t="n">
         <v>2014</v>
       </c>
       <c r="Q43" s="20" t="n">
         <f aca="false">(N43/$N$44)*100</f>
-        <v>94.5737165134617</v>
+        <v>94.9720186242729</v>
       </c>
       <c r="S43" s="9" t="n">
         <v>2014</v>
       </c>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
+      <c r="T43" s="21" t="n">
+        <f aca="false">SUM(D43:F43)</f>
+        <v>214.62</v>
+      </c>
+      <c r="U43" s="21" t="n">
+        <f aca="false">SUM(G43:I43)</f>
+        <v>363.95</v>
+      </c>
+      <c r="V43" s="21" t="n">
+        <f aca="false">SUM(J43:L43)</f>
+        <v>152.9</v>
+      </c>
+      <c r="W43" s="21" t="n">
+        <f aca="false">SUM(M43,B44,C44)</f>
+        <v>29.2</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44">
-      <c r="N44" s="23" t="n">
+      <c r="N44" s="22" t="n">
         <f aca="false">AVERAGE(N2:N43)</f>
-        <v>873.583095238095</v>
-      </c>
-      <c r="Q44" s="24" t="n">
+        <v>873.667857142857</v>
+      </c>
+      <c r="Q44" s="23" t="n">
         <f aca="false">(N44/$N$44)*100</f>
         <v>100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="114">
+      <c r="J114" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="115">
+      <c r="J115" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="116">
+      <c r="J116" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="117">
+      <c r="J117" s="24" t="n">
+        <v>873.25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="118">
+      <c r="J118" s="24" t="n">
+        <v>993.83</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="119">
+      <c r="J119" s="24" t="n">
+        <v>1041.8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="120">
+      <c r="J120" s="24" t="n">
+        <v>897.4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="121">
+      <c r="J121" s="24" t="n">
+        <v>930.89</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="122">
+      <c r="J122" s="24" t="n">
+        <v>818.7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="123">
+      <c r="J123" s="24" t="n">
+        <v>1070.59</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="124">
+      <c r="J124" s="24" t="n">
+        <v>1105.09</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="125">
+      <c r="J125" s="24" t="n">
+        <v>1069.08</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="126">
+      <c r="J126" s="24" t="n">
+        <v>1000.15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="127">
+      <c r="J127" s="24" t="n">
+        <v>1057.42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="128">
+      <c r="J128" s="24" t="n">
+        <v>1046.97</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="129">
+      <c r="J129" s="24" t="n">
+        <v>428.02</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="130">
+      <c r="J130" s="24" t="n">
+        <v>872.41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="131">
+      <c r="J131" s="24" t="n">
+        <v>1077.63</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="132">
+      <c r="J132" s="24" t="n">
+        <v>1017.2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="133">
+      <c r="J133" s="24" t="n">
+        <v>3967.43</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="134">
+      <c r="J134" s="24" t="n">
+        <v>959.8</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="135">
+      <c r="J135" s="24" t="n">
+        <v>743.41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="136">
+      <c r="J136" s="24" t="n">
+        <v>747.53</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="137">
+      <c r="J137" s="24" t="n">
+        <v>311.63</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="138">
+      <c r="J138" s="24" t="n">
+        <v>737.31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="139">
+      <c r="J139" s="24" t="n">
+        <v>815.54</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="140">
+      <c r="J140" s="24" t="n">
+        <v>174.96</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="141">
+      <c r="J141" s="24" t="n">
+        <v>921.58</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="142">
+      <c r="J142" s="24" t="n">
+        <v>942.94</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="143">
+      <c r="J143" s="24" t="n">
+        <v>643.7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="144">
+      <c r="J144" s="24" t="n">
+        <v>566.36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="145">
+      <c r="J145" s="24" t="n">
+        <v>867.55</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="146">
+      <c r="J146" s="24" t="n">
+        <v>645.63</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="147">
+      <c r="J147" s="24" t="n">
+        <v>978.36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="148">
+      <c r="J148" s="24" t="n">
+        <v>881.12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="149">
+      <c r="J149" s="24" t="n">
+        <v>1121.09</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="150">
+      <c r="J150" s="24" t="n">
+        <v>939.49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="151">
+      <c r="J151" s="24" t="n">
+        <v>982.17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="152">
+      <c r="J152" s="24" t="n">
+        <v>833.81</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="153">
+      <c r="J153" s="24" t="n">
+        <v>756.65</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="154">
+      <c r="J154" s="24" t="n">
+        <v>1025.82</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="155">
+      <c r="J155" s="24" t="n">
+        <v>826.18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="156">
+      <c r="J156" s="25" t="n">
+        <f aca="false">AVERAGE(J114:J155)</f>
+        <v>873.583095238095</v>
       </c>
     </row>
   </sheetData>

--- a/George-Yanev-Milwaukee-Popov.xlsx
+++ b/George-Yanev-Milwaukee-Popov.xlsx
@@ -5,19 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="344" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="344" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="annuals" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="temperature" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="rain-snow" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="temperatures" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="rainfall" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>Year</t>
   </si>
@@ -356,7 +356,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -434,31 +434,11 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -533,7 +513,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart258.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart389.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -549,7 +529,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1300"/>
-              <a:t>Milwaukee Airport Average Temperatures</a:t>
+              <a:t>Milwaukee Airport Средни месечни температури за 2та периода</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -564,7 +544,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>temperature!$A$67:$A$67</c:f>
+              <c:f>temperatures!$A$67:$A$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -589,7 +569,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>temperature!$B$66:$M$66</c:f>
+              <c:f>temperatures!$B$66:$M$66</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -633,7 +613,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>temperature!$B$67:$M$67</c:f>
+              <c:f>temperatures!$B$67:$M$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -682,7 +662,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>temperature!$A$68:$A$68</c:f>
+              <c:f>temperatures!$A$68:$A$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -707,7 +687,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>temperature!$B$66:$M$66</c:f>
+              <c:f>temperatures!$B$66:$M$66</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -751,7 +731,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>temperature!$B$68:$M$68</c:f>
+              <c:f>temperatures!$B$68:$M$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -796,11 +776,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="91434027"/>
-        <c:axId val="85837041"/>
+        <c:axId val="34729009"/>
+        <c:axId val="40784176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91434027"/>
+        <c:axId val="34729009"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,14 +796,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="85837041"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="40784176"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85837041"/>
+        <c:axId val="40784176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,8 +828,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91434027"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="34729009"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -876,7 +856,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart259.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart390.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -892,7 +872,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1300"/>
-              <a:t>Milwaukee Airport Temperatures Anomaly</a:t>
+              <a:t>Milwaukee Airport Аномалии на температурите за целият период</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -907,7 +887,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>temperature!$Q$1:$Q$1</c:f>
+              <c:f>temperatures!$Q$1:$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -932,7 +912,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>temperature!$P$2:$P$43</c:f>
+              <c:f>temperatures!$P$2:$P$43</c:f>
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
@@ -1066,7 +1046,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>temperature!$Q$2:$Q$43</c:f>
+              <c:f>temperatures!$Q$2:$Q$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1201,11 +1181,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="28296591"/>
-        <c:axId val="4298800"/>
+        <c:axId val="52249837"/>
+        <c:axId val="69142401"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28296591"/>
+        <c:axId val="52249837"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,14 +1201,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4298800"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="69142401"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4298800"/>
+        <c:axId val="69142401"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,8 +1233,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="28296591"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="52249837"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1281,7 +1261,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart260.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart391.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1297,7 +1277,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1300"/>
-              <a:t>Milwaukee Airport Seasons Temperatures</a:t>
+              <a:t>Milwaukee Airport Сезонни температури за целят период</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1312,7 +1292,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>temperature!$T$1:$T$1</c:f>
+              <c:f>temperatures!$T$1:$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1337,7 +1317,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>temperature!$S$2:$S$43</c:f>
+              <c:f>temperatures!$S$2:$S$43</c:f>
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
@@ -1471,7 +1451,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>temperature!$T$2:$T$43</c:f>
+              <c:f>temperatures!$T$2:$T$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1610,7 +1590,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>temperature!$U$1:$U$1</c:f>
+              <c:f>temperatures!$U$1:$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1635,7 +1615,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>temperature!$S$2:$S$43</c:f>
+              <c:f>temperatures!$S$2:$S$43</c:f>
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
@@ -1769,7 +1749,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>temperature!$U$2:$U$43</c:f>
+              <c:f>temperatures!$U$2:$U$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -1908,7 +1888,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>temperature!$V$1:$V$1</c:f>
+              <c:f>temperatures!$V$1:$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1933,7 +1913,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>temperature!$S$2:$S$43</c:f>
+              <c:f>temperatures!$S$2:$S$43</c:f>
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
@@ -2067,7 +2047,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>temperature!$V$2:$V$43</c:f>
+              <c:f>temperatures!$V$2:$V$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -2206,7 +2186,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>temperature!$W$1:$W$1</c:f>
+              <c:f>temperatures!$W$1:$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2231,7 +2211,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>temperature!$S$2:$S$43</c:f>
+              <c:f>temperatures!$S$2:$S$43</c:f>
               <c:strCache>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
@@ -2365,7 +2345,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>temperature!$W$2:$W$43</c:f>
+              <c:f>temperatures!$W$2:$W$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -2500,11 +2480,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="67772427"/>
-        <c:axId val="87353296"/>
+        <c:axId val="56945936"/>
+        <c:axId val="89704074"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67772427"/>
+        <c:axId val="56945936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,14 +2500,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87353296"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="89704074"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87353296"/>
+        <c:axId val="89704074"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,8 +2532,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67772427"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="56945936"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2580,7 +2560,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart261.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart392.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2596,7 +2576,7 @@
             </a:pPr>
             <a:r>
               <a:rPr sz="1300"/>
-              <a:t>Milwaukee Airport Seasons Average Temperatures</a:t>
+              <a:t>Milwaukee Airport Средни сезонни температури за 2та периода</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2611,7 +2591,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>temperature!$Y$25:$Y$25</c:f>
+              <c:f>temperatures!$Y$25:$Y$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2636,7 +2616,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>temperature!$Z$24:$AC$24</c:f>
+              <c:f>temperatures!$Z$24:$AC$24</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2656,7 +2636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>temperature!$Z$25:$AC$25</c:f>
+              <c:f>temperatures!$Z$25:$AC$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2681,7 +2661,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>temperature!$Y$26:$Y$26</c:f>
+              <c:f>temperatures!$Y$26:$Y$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2706,7 +2686,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>temperature!$Z$24:$AC$24</c:f>
+              <c:f>temperatures!$Z$24:$AC$24</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2726,7 +2706,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>temperature!$Z$26:$AC$26</c:f>
+              <c:f>temperatures!$Z$26:$AC$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2747,11 +2727,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="32931722"/>
-        <c:axId val="15740904"/>
+        <c:axId val="19909606"/>
+        <c:axId val="50396022"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="32931722"/>
+        <c:axId val="19909606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2767,14 +2747,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15740904"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="50396022"/>
+        <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15740904"/>
+        <c:axId val="50396022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2799,8 +2779,2507 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32931722"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="19909606"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart393.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Milwaukee Airport Средни месечни температури за 2та периода</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$A$67:$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1973-2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$B$66:$M$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sept</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$B$67:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39.0459523809524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.3578571428571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.582619047619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.4983333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.3735714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.7621428571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116.796904761905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109.535476190476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.7392857142857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.8223809523809</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.7840476190476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.3692857142857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$A$68:$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1985-2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$B$66:$M$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sept</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$B$68:$M$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>41.3376666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.2343333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.8563333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.2033333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.1173333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.2133333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.270333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119.797333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.051</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.1863333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.6363333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="68798334"/>
+        <c:axId val="26022314"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68798334"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="26022314"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="26022314"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="68798334"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart394.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Milwaukee Airport Аномалии на валежите за целият период</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$Q$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anomaly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$P$2:$P$43</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$Q$2:$Q$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.9521720823948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.753755717889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.244400658962</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.716380448601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.549644969689</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.7083805140071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>122.539703303397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126.488572397977</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122.366868743025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114.477142752027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121.032265449031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.836158723281</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.9911579670274</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.8560257044398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123.345501518639</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>116.428685304566</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>454.111933678621</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>109.858682810973</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85.0906890899206</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85.5622641817951</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.6691616215708</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.3924832500092</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93.3466869969382</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.0259170083433</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>105.484022614021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107.928887653448</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73.6778851067135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.8255507364273</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.2997502319858</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.8987928560625</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>111.983059923884</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100.852972075854</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128.319931978073</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>107.53400074399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>112.419152423894</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95.4378707174596</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86.6061391424495</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>117.415330278342</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>94.9720186242729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="46330419"/>
+        <c:axId val="74037559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46330419"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="74037559"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74037559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="46330419"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart395.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Milwaukee Airport Сезонни валежи за целят период</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$T$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$S$2:$S$43</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$T$2:$T$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>384.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>253.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>339.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>213.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>311.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>399.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>290.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>219.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>196.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>261.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>141.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>199.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>354.29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>312.14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>162.29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>287.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>114.28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>243.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>124.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260.84</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>299.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>239.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>188.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>204.21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>384.04</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>121.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>297.69</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>246.13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>257.01</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>298.94</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>196.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>314.93</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>258.31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>339.59</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>214.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$U$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JJA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$S$2:$S$43</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$U$2:$U$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>437.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>205.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>377.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>307.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>283.96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>505.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>434.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>155.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>392.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330.44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>224.77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2381.74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>377.18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>308.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>209.06</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76.94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>432.81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248.13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>222.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>299.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>253.21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120.63</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>306.03</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>171.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>262.11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>339.07</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>415.53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>266.19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>536.98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>194.05</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>186.69</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>272.78</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>363.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$V$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$S$2:$S$43</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$V$2:$V$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>238.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>302.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>152.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>237.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>330.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>412.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>203.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>172.47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>225.29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205.73</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>384.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1284.97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>173.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>149.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>222.77</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139.96</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74.17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>178.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>133.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>297.15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>239.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>174.47</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>111.23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>182.87</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>256.02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135.37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>216.92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>222.73</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>169.88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>185.64</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>140.97</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>206.98</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>152.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$W$1:$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DJF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$S$2:$S$43</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$W$2:$W$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>246.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>275.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>131.53</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>117.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122.93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>157.73</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>169.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>132.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>119.38</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>178.98</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94.94</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>184.12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>120.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>145.04</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>208.53</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>195.81</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99.06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>131.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>128.77</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>262.11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>111.99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:axId val="81992712"/>
+        <c:axId val="47943389"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="81992712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="47943389"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47943389"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="81992712"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart396.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Milwaukee Airport Средни сезонни валежи за 2та периода</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$Y$25:$Y$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1973-2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$Z$24:$AC$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JJA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DJF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$Z$25:$AC$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>223.454523809524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313.094523809524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212.345714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.773095238095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$Y$26:$Y$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1985-2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$Z$24:$AC$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JJA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DJF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$Z$26:$AC$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>225.177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>348.281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226.114333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.670333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="0"/>
+        <c:axId val="87353269"/>
+        <c:axId val="30843880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="87353269"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="30843880"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="30843880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="87353269"/>
+        <c:crossesAt val="0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart397.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Milwaukee Airport Средни сезонни валежи за 2та периода</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$Y$25:$Y$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1973-2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$Z$24:$AC$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JJA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DJF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$Z$25:$AC$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>223.454523809524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313.094523809524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212.345714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.773095238095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rainfall!$Y$26:$Y$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1985-2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>rainfall!$Z$24:$AC$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MAM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JJA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DJF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rainfall!$Z$26:$AC$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>225.177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>348.281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226.114333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.670333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="69526181"/>
+        <c:axId val="80053122"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69526181"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="80053122"/>
+        <c:crossesAt val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80053122"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="69526181"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2898,7 +5377,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>34200</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
@@ -2928,7 +5407,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>786600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
@@ -2944,6 +5423,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330480</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63720</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="330480" y="11647800"/>
+        <a:ext cx="9697320" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>192960</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53640</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="192960" y="7596360"/>
+        <a:ext cx="9824760" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>655920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10814400" y="324000"/>
+        <a:ext cx="7443000" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>804960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>113760</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11142720" y="4875120"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>130320</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>30960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11159280" y="8445960"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4754,8 +7388,8 @@
   </sheetPr>
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="O24" activeCellId="0" pane="topLeft" sqref="O24"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="Y58" activeCellId="0" pane="topLeft" sqref="Y58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
@@ -4776,7 +7410,7 @@
     <col collapsed="false" hidden="false" max="22" min="21" style="0" width="5.67857142857143"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.29081632653061"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10.969387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.2295918367347"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="6.3265306122449"/>
     <col collapsed="false" hidden="false" max="28" min="27" style="0" width="5.55102040816327"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="5.16326530612245"/>
@@ -8058,13 +10692,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W156"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="S45" activeCellId="0" pane="topLeft" sqref="S45"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="M33" activeCellId="0" pane="topLeft" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.3"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.45408163265306"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.19897959183674"/>
@@ -8073,16 +10707,20 @@
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.81122448979592"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.55102040816327"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="0" width="5.29081632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="6.58673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.7959183673469"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.45408163265306"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.16326530612245"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.7959183673469"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="9.16326530612245"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.64795918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.16326530612245"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.45408163265306"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.3265306122449"/>
     <col collapsed="false" hidden="false" max="22" min="21" style="0" width="5.67857142857143"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="6.3265306122449"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="5.55102040816327"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="5.16326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
@@ -8191,26 +10829,26 @@
       <c r="P2" s="9" t="n">
         <v>1973</v>
       </c>
-      <c r="Q2" s="20" t="n">
+      <c r="Q2" s="19" t="n">
         <f aca="false">(N2/$N$44)*100</f>
         <v>0</v>
       </c>
       <c r="S2" s="9" t="n">
         <v>1973</v>
       </c>
-      <c r="T2" s="21" t="n">
+      <c r="T2" s="19" t="n">
         <f aca="false">SUM(D2:F2)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="21" t="n">
+      <c r="U2" s="19" t="n">
         <f aca="false">SUM(G2:I2)</f>
         <v>0</v>
       </c>
-      <c r="V2" s="21" t="n">
+      <c r="V2" s="19" t="n">
         <f aca="false">SUM(J2:L2)</f>
         <v>0</v>
       </c>
-      <c r="W2" s="21" t="n">
+      <c r="W2" s="19" t="n">
         <f aca="false">SUM(M2,B3,C3)</f>
         <v>0</v>
       </c>
@@ -8262,26 +10900,26 @@
       <c r="P3" s="9" t="n">
         <v>1974</v>
       </c>
-      <c r="Q3" s="20" t="n">
+      <c r="Q3" s="19" t="n">
         <f aca="false">(N3/$N$44)*100</f>
         <v>0</v>
       </c>
       <c r="S3" s="9" t="n">
         <v>1974</v>
       </c>
-      <c r="T3" s="21" t="n">
+      <c r="T3" s="19" t="n">
         <f aca="false">SUM(D3:F3)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="21" t="n">
+      <c r="U3" s="19" t="n">
         <f aca="false">SUM(G3:I3)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="21" t="n">
+      <c r="V3" s="19" t="n">
         <f aca="false">SUM(J3:L3)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="21" t="n">
+      <c r="W3" s="19" t="n">
         <f aca="false">SUM(M3,B4,C4)</f>
         <v>0</v>
       </c>
@@ -8333,26 +10971,26 @@
       <c r="P4" s="9" t="n">
         <v>1975</v>
       </c>
-      <c r="Q4" s="20" t="n">
+      <c r="Q4" s="19" t="n">
         <f aca="false">(N4/$N$44)*100</f>
         <v>0</v>
       </c>
       <c r="S4" s="9" t="n">
         <v>1975</v>
       </c>
-      <c r="T4" s="21" t="n">
+      <c r="T4" s="19" t="n">
         <f aca="false">SUM(D4:F4)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="21" t="n">
+      <c r="U4" s="19" t="n">
         <f aca="false">SUM(G4:I4)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="21" t="n">
+      <c r="V4" s="19" t="n">
         <f aca="false">SUM(J4:L4)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="21" t="n">
+      <c r="W4" s="19" t="n">
         <f aca="false">SUM(M4,B5,C5)</f>
         <v>82.53</v>
       </c>
@@ -8404,26 +11042,26 @@
       <c r="P5" s="9" t="n">
         <v>1976</v>
       </c>
-      <c r="Q5" s="20" t="n">
+      <c r="Q5" s="19" t="n">
         <f aca="false">(N5/$N$44)*100</f>
         <v>99.9521720823948</v>
       </c>
       <c r="S5" s="9" t="n">
         <v>1976</v>
       </c>
-      <c r="T5" s="21" t="n">
+      <c r="T5" s="19" t="n">
         <f aca="false">SUM(D5:F5)</f>
         <v>384.31</v>
       </c>
-      <c r="U5" s="21" t="n">
+      <c r="U5" s="19" t="n">
         <f aca="false">SUM(G5:I5)</f>
         <v>226.05</v>
       </c>
-      <c r="V5" s="21" t="n">
+      <c r="V5" s="19" t="n">
         <f aca="false">SUM(J5:L5)</f>
         <v>165.88</v>
       </c>
-      <c r="W5" s="21" t="n">
+      <c r="W5" s="19" t="n">
         <f aca="false">SUM(M5,B6,C6)</f>
         <v>48.51</v>
       </c>
@@ -8475,26 +11113,26 @@
       <c r="P6" s="9" t="n">
         <v>1977</v>
       </c>
-      <c r="Q6" s="20" t="n">
+      <c r="Q6" s="19" t="n">
         <f aca="false">(N6/$N$44)*100</f>
         <v>113.753755717889</v>
       </c>
       <c r="S6" s="9" t="n">
         <v>1977</v>
       </c>
-      <c r="T6" s="21" t="n">
+      <c r="T6" s="19" t="n">
         <f aca="false">SUM(D6:F6)</f>
         <v>196.83</v>
       </c>
-      <c r="U6" s="21" t="n">
+      <c r="U6" s="19" t="n">
         <f aca="false">SUM(G6:I6)</f>
         <v>437.38</v>
       </c>
-      <c r="V6" s="21" t="n">
+      <c r="V6" s="19" t="n">
         <f aca="false">SUM(J6:L6)</f>
         <v>238.23</v>
       </c>
-      <c r="W6" s="21" t="n">
+      <c r="W6" s="19" t="n">
         <f aca="false">SUM(M6,B7,C7)</f>
         <v>168.88</v>
       </c>
@@ -8546,26 +11184,26 @@
       <c r="P7" s="9" t="n">
         <v>1978</v>
       </c>
-      <c r="Q7" s="20" t="n">
+      <c r="Q7" s="19" t="n">
         <f aca="false">(N7/$N$44)*100</f>
         <v>119.244400658962</v>
       </c>
       <c r="S7" s="9" t="n">
         <v>1978</v>
       </c>
-      <c r="T7" s="21" t="n">
+      <c r="T7" s="19" t="n">
         <f aca="false">SUM(D7:F7)</f>
         <v>253.96</v>
       </c>
-      <c r="U7" s="21" t="n">
+      <c r="U7" s="19" t="n">
         <f aca="false">SUM(G7:I7)</f>
         <v>352.52</v>
       </c>
-      <c r="V7" s="21" t="n">
+      <c r="V7" s="19" t="n">
         <f aca="false">SUM(J7:L7)</f>
         <v>302.24</v>
       </c>
-      <c r="W7" s="21" t="n">
+      <c r="W7" s="19" t="n">
         <f aca="false">SUM(M7,B8,C8)</f>
         <v>195.34</v>
       </c>
@@ -8617,26 +11255,26 @@
       <c r="P8" s="9" t="n">
         <v>1979</v>
       </c>
-      <c r="Q8" s="20" t="n">
+      <c r="Q8" s="19" t="n">
         <f aca="false">(N8/$N$44)*100</f>
         <v>102.716380448601</v>
       </c>
       <c r="S8" s="9" t="n">
         <v>1979</v>
       </c>
-      <c r="T8" s="21" t="n">
+      <c r="T8" s="19" t="n">
         <f aca="false">SUM(D8:F8)</f>
         <v>339.33</v>
       </c>
-      <c r="U8" s="21" t="n">
+      <c r="U8" s="19" t="n">
         <f aca="false">SUM(G8:I8)</f>
         <v>205.26</v>
       </c>
-      <c r="V8" s="21" t="n">
+      <c r="V8" s="19" t="n">
         <f aca="false">SUM(J8:L8)</f>
         <v>152.13</v>
       </c>
-      <c r="W8" s="21" t="n">
+      <c r="W8" s="19" t="n">
         <f aca="false">SUM(M8,B9,C9)</f>
         <v>138.93</v>
       </c>
@@ -8688,26 +11326,26 @@
       <c r="P9" s="9" t="n">
         <v>1980</v>
       </c>
-      <c r="Q9" s="20" t="n">
+      <c r="Q9" s="19" t="n">
         <f aca="false">(N9/$N$44)*100</f>
         <v>106.549644969689</v>
       </c>
       <c r="S9" s="9" t="n">
         <v>1980</v>
       </c>
-      <c r="T9" s="21" t="n">
+      <c r="T9" s="19" t="n">
         <f aca="false">SUM(D9:F9)</f>
         <v>213.85</v>
       </c>
-      <c r="U9" s="21" t="n">
+      <c r="U9" s="19" t="n">
         <f aca="false">SUM(G9:I9)</f>
         <v>377.44</v>
       </c>
-      <c r="V9" s="21" t="n">
+      <c r="V9" s="19" t="n">
         <f aca="false">SUM(J9:L9)</f>
         <v>175.52</v>
       </c>
-      <c r="W9" s="21" t="n">
+      <c r="W9" s="19" t="n">
         <f aca="false">SUM(M9,B10,C10)</f>
         <v>137.16</v>
       </c>
@@ -8759,26 +11397,26 @@
       <c r="P10" s="9" t="n">
         <v>1981</v>
       </c>
-      <c r="Q10" s="20" t="n">
+      <c r="Q10" s="19" t="n">
         <f aca="false">(N10/$N$44)*100</f>
         <v>93.7083805140071</v>
       </c>
       <c r="S10" s="9" t="n">
         <v>1981</v>
       </c>
-      <c r="T10" s="21" t="n">
+      <c r="T10" s="19" t="n">
         <f aca="false">SUM(D10:F10)</f>
         <v>240.05</v>
       </c>
-      <c r="U10" s="21" t="n">
+      <c r="U10" s="19" t="n">
         <f aca="false">SUM(G10:I10)</f>
         <v>240.05</v>
       </c>
-      <c r="V10" s="21" t="n">
+      <c r="V10" s="19" t="n">
         <f aca="false">SUM(J10:L10)</f>
         <v>262.67</v>
       </c>
-      <c r="W10" s="21" t="n">
+      <c r="W10" s="19" t="n">
         <f aca="false">SUM(M10,B11,C11)</f>
         <v>121.15</v>
       </c>
@@ -8830,26 +11468,26 @@
       <c r="P11" s="9" t="n">
         <v>1982</v>
       </c>
-      <c r="Q11" s="20" t="n">
+      <c r="Q11" s="19" t="n">
         <f aca="false">(N11/$N$44)*100</f>
         <v>122.539703303397</v>
       </c>
       <c r="S11" s="9" t="n">
         <v>1982</v>
       </c>
-      <c r="T11" s="21" t="n">
+      <c r="T11" s="19" t="n">
         <f aca="false">SUM(D11:F11)</f>
         <v>311.89</v>
       </c>
-      <c r="U11" s="21" t="n">
+      <c r="U11" s="19" t="n">
         <f aca="false">SUM(G11:I11)</f>
         <v>307.89</v>
       </c>
-      <c r="V11" s="21" t="n">
+      <c r="V11" s="19" t="n">
         <f aca="false">SUM(J11:L11)</f>
         <v>237.45</v>
       </c>
-      <c r="W11" s="21" t="n">
+      <c r="W11" s="19" t="n">
         <f aca="false">SUM(M11,B12,C12)</f>
         <v>199.38</v>
       </c>
@@ -8901,26 +11539,26 @@
       <c r="P12" s="9" t="n">
         <v>1983</v>
       </c>
-      <c r="Q12" s="20" t="n">
+      <c r="Q12" s="19" t="n">
         <f aca="false">(N12/$N$44)*100</f>
         <v>126.488572397977</v>
       </c>
       <c r="S12" s="9" t="n">
         <v>1983</v>
       </c>
-      <c r="T12" s="21" t="n">
+      <c r="T12" s="19" t="n">
         <f aca="false">SUM(D12:F12)</f>
         <v>399.54</v>
       </c>
-      <c r="U12" s="21" t="n">
+      <c r="U12" s="19" t="n">
         <f aca="false">SUM(G12:I12)</f>
         <v>270.99</v>
       </c>
-      <c r="V12" s="21" t="n">
+      <c r="V12" s="19" t="n">
         <f aca="false">SUM(J12:L12)</f>
         <v>270.49</v>
       </c>
-      <c r="W12" s="21" t="n">
+      <c r="W12" s="19" t="n">
         <f aca="false">SUM(M12,B13,C13)</f>
         <v>131.84</v>
       </c>
@@ -8972,26 +11610,26 @@
       <c r="P13" s="9" t="n">
         <v>1984</v>
       </c>
-      <c r="Q13" s="20" t="n">
+      <c r="Q13" s="19" t="n">
         <f aca="false">(N13/$N$44)*100</f>
         <v>122.366868743025</v>
       </c>
       <c r="S13" s="9" t="n">
         <v>1984</v>
       </c>
-      <c r="T13" s="21" t="n">
+      <c r="T13" s="19" t="n">
         <f aca="false">SUM(D13:F13)</f>
         <v>290.02</v>
       </c>
-      <c r="U13" s="21" t="n">
+      <c r="U13" s="19" t="n">
         <f aca="false">SUM(G13:I13)</f>
         <v>283.96</v>
       </c>
-      <c r="V13" s="21" t="n">
+      <c r="V13" s="19" t="n">
         <f aca="false">SUM(J13:L13)</f>
         <v>330.48</v>
       </c>
-      <c r="W13" s="21" t="n">
+      <c r="W13" s="19" t="n">
         <f aca="false">SUM(M13,B14,C14)</f>
         <v>246.64</v>
       </c>
@@ -9043,26 +11681,26 @@
       <c r="P14" s="9" t="n">
         <v>1985</v>
       </c>
-      <c r="Q14" s="20" t="n">
+      <c r="Q14" s="19" t="n">
         <f aca="false">(N14/$N$44)*100</f>
         <v>114.477142752027</v>
       </c>
       <c r="S14" s="9" t="n">
         <v>1985</v>
       </c>
-      <c r="T14" s="21" t="n">
+      <c r="T14" s="19" t="n">
         <f aca="false">SUM(D14:F14)</f>
         <v>219.42</v>
       </c>
-      <c r="U14" s="21" t="n">
+      <c r="U14" s="19" t="n">
         <f aca="false">SUM(G14:I14)</f>
         <v>159.73</v>
       </c>
-      <c r="V14" s="21" t="n">
+      <c r="V14" s="19" t="n">
         <f aca="false">SUM(J14:L14)</f>
         <v>412.22</v>
       </c>
-      <c r="W14" s="21" t="n">
+      <c r="W14" s="19" t="n">
         <f aca="false">SUM(M14,B15,C15)</f>
         <v>200.67</v>
       </c>
@@ -9114,26 +11752,26 @@
       <c r="P15" s="9" t="n">
         <v>1986</v>
       </c>
-      <c r="Q15" s="20" t="n">
+      <c r="Q15" s="19" t="n">
         <f aca="false">(N15/$N$44)*100</f>
         <v>121.032265449031</v>
       </c>
       <c r="S15" s="9" t="n">
         <v>1986</v>
       </c>
-      <c r="T15" s="21" t="n">
+      <c r="T15" s="19" t="n">
         <f aca="false">SUM(D15:F15)</f>
         <v>196.34</v>
       </c>
-      <c r="U15" s="21" t="n">
+      <c r="U15" s="19" t="n">
         <f aca="false">SUM(G15:I15)</f>
         <v>505.46</v>
       </c>
-      <c r="V15" s="21" t="n">
+      <c r="V15" s="19" t="n">
         <f aca="false">SUM(J15:L15)</f>
         <v>203.97</v>
       </c>
-      <c r="W15" s="21" t="n">
+      <c r="W15" s="19" t="n">
         <f aca="false">SUM(M15,B16,C16)</f>
         <v>57.14</v>
       </c>
@@ -9185,26 +11823,26 @@
       <c r="P16" s="9" t="n">
         <v>1987</v>
       </c>
-      <c r="Q16" s="20" t="n">
+      <c r="Q16" s="19" t="n">
         <f aca="false">(N16/$N$44)*100</f>
         <v>119.836158723281</v>
       </c>
       <c r="S16" s="9" t="n">
         <v>1987</v>
       </c>
-      <c r="T16" s="21" t="n">
+      <c r="T16" s="19" t="n">
         <f aca="false">SUM(D16:F16)</f>
         <v>261.87</v>
       </c>
-      <c r="U16" s="21" t="n">
+      <c r="U16" s="19" t="n">
         <f aca="false">SUM(G16:I16)</f>
         <v>434.34</v>
       </c>
-      <c r="V16" s="21" t="n">
+      <c r="V16" s="19" t="n">
         <f aca="false">SUM(J16:L16)</f>
         <v>172.47</v>
       </c>
-      <c r="W16" s="21" t="n">
+      <c r="W16" s="19" t="n">
         <f aca="false">SUM(M16,B17,C17)</f>
         <v>275.58</v>
       </c>
@@ -9256,26 +11894,26 @@
       <c r="P17" s="9" t="n">
         <v>1988</v>
       </c>
-      <c r="Q17" s="20" t="n">
+      <c r="Q17" s="19" t="n">
         <f aca="false">(N17/$N$44)*100</f>
         <v>48.9911579670274</v>
       </c>
       <c r="S17" s="9" t="n">
         <v>1988</v>
       </c>
-      <c r="T17" s="21" t="n">
+      <c r="T17" s="19" t="n">
         <f aca="false">SUM(D17:F17)</f>
         <v>141.5</v>
       </c>
-      <c r="U17" s="21" t="n">
+      <c r="U17" s="19" t="n">
         <f aca="false">SUM(G17:I17)</f>
         <v>155.71</v>
       </c>
-      <c r="V17" s="21" t="n">
+      <c r="V17" s="19" t="n">
         <f aca="false">SUM(J17:L17)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="21" t="n">
+      <c r="W17" s="19" t="n">
         <f aca="false">SUM(M17,B18,C18)</f>
         <v>42.4</v>
       </c>
@@ -9327,26 +11965,26 @@
       <c r="P18" s="9" t="n">
         <v>1989</v>
       </c>
-      <c r="Q18" s="20" t="n">
+      <c r="Q18" s="19" t="n">
         <f aca="false">(N18/$N$44)*100</f>
         <v>99.8560257044398</v>
       </c>
       <c r="S18" s="9" t="n">
         <v>1989</v>
       </c>
-      <c r="T18" s="21" t="n">
+      <c r="T18" s="19" t="n">
         <f aca="false">SUM(D18:F18)</f>
         <v>199.35</v>
       </c>
-      <c r="U18" s="21" t="n">
+      <c r="U18" s="19" t="n">
         <f aca="false">SUM(G18:I18)</f>
         <v>392.94</v>
       </c>
-      <c r="V18" s="21" t="n">
+      <c r="V18" s="19" t="n">
         <f aca="false">SUM(J18:L18)</f>
         <v>225.29</v>
       </c>
-      <c r="W18" s="21" t="n">
+      <c r="W18" s="19" t="n">
         <f aca="false">SUM(M18,B19,C19)</f>
         <v>131.53</v>
       </c>
@@ -9398,26 +12036,26 @@
       <c r="P19" s="9" t="n">
         <v>1990</v>
       </c>
-      <c r="Q19" s="20" t="n">
+      <c r="Q19" s="19" t="n">
         <f aca="false">(N19/$N$44)*100</f>
         <v>123.345501518639</v>
       </c>
       <c r="S19" s="9" t="n">
         <v>1990</v>
       </c>
-      <c r="T19" s="21" t="n">
+      <c r="T19" s="19" t="n">
         <f aca="false">SUM(D19:F19)</f>
         <v>354.29</v>
       </c>
-      <c r="U19" s="21" t="n">
+      <c r="U19" s="19" t="n">
         <f aca="false">SUM(G19:I19)</f>
         <v>330.44</v>
       </c>
-      <c r="V19" s="21" t="n">
+      <c r="V19" s="19" t="n">
         <f aca="false">SUM(J19:L19)</f>
         <v>205.73</v>
       </c>
-      <c r="W19" s="21" t="n">
+      <c r="W19" s="19" t="n">
         <f aca="false">SUM(M19,B20,C20)</f>
         <v>117.85</v>
       </c>
@@ -9469,26 +12107,26 @@
       <c r="P20" s="9" t="n">
         <v>1991</v>
       </c>
-      <c r="Q20" s="20" t="n">
+      <c r="Q20" s="19" t="n">
         <f aca="false">(N20/$N$44)*100</f>
         <v>116.428685304566</v>
       </c>
       <c r="S20" s="9" t="n">
         <v>1991</v>
       </c>
-      <c r="T20" s="21" t="n">
+      <c r="T20" s="19" t="n">
         <f aca="false">SUM(D20:F20)</f>
         <v>312.14</v>
       </c>
-      <c r="U20" s="21" t="n">
+      <c r="U20" s="19" t="n">
         <f aca="false">SUM(G20:I20)</f>
         <v>224.77</v>
       </c>
-      <c r="V20" s="21" t="n">
+      <c r="V20" s="19" t="n">
         <f aca="false">SUM(J20:L20)</f>
         <v>384.03</v>
       </c>
-      <c r="W20" s="21" t="n">
+      <c r="W20" s="19" t="n">
         <f aca="false">SUM(M20,B21,C21)</f>
         <v>122.93</v>
       </c>
@@ -9540,26 +12178,26 @@
       <c r="P21" s="9" t="n">
         <v>1992</v>
       </c>
-      <c r="Q21" s="20" t="n">
+      <c r="Q21" s="19" t="n">
         <f aca="false">(N21/$N$44)*100</f>
         <v>454.111933678621</v>
       </c>
       <c r="S21" s="9" t="n">
         <v>1992</v>
       </c>
-      <c r="T21" s="21" t="n">
+      <c r="T21" s="19" t="n">
         <f aca="false">SUM(D21:F21)</f>
         <v>162.29</v>
       </c>
-      <c r="U21" s="21" t="n">
+      <c r="U21" s="19" t="n">
         <f aca="false">SUM(G21:I21)</f>
         <v>2381.74</v>
       </c>
-      <c r="V21" s="21" t="n">
+      <c r="V21" s="19" t="n">
         <f aca="false">SUM(J21:L21)</f>
         <v>1284.97</v>
       </c>
-      <c r="W21" s="21" t="n">
+      <c r="W21" s="19" t="n">
         <f aca="false">SUM(M21,B22,C22)</f>
         <v>157.73</v>
       </c>
@@ -9611,26 +12249,26 @@
       <c r="P22" s="9" t="n">
         <v>1993</v>
       </c>
-      <c r="Q22" s="20" t="n">
+      <c r="Q22" s="19" t="n">
         <f aca="false">(N22/$N$44)*100</f>
         <v>109.858682810973</v>
       </c>
       <c r="S22" s="9" t="n">
         <v>1993</v>
       </c>
-      <c r="T22" s="21" t="n">
+      <c r="T22" s="19" t="n">
         <f aca="false">SUM(D22:F22)</f>
         <v>287.75</v>
       </c>
-      <c r="U22" s="21" t="n">
+      <c r="U22" s="19" t="n">
         <f aca="false">SUM(G22:I22)</f>
         <v>377.18</v>
       </c>
-      <c r="V22" s="21" t="n">
+      <c r="V22" s="19" t="n">
         <f aca="false">SUM(J22:L22)</f>
         <v>173.47</v>
       </c>
-      <c r="W22" s="21" t="n">
+      <c r="W22" s="19" t="n">
         <f aca="false">SUM(M22,B23,C23)</f>
         <v>169.16</v>
       </c>
@@ -9682,26 +12320,26 @@
       <c r="P23" s="9" t="n">
         <v>1994</v>
       </c>
-      <c r="Q23" s="20" t="n">
+      <c r="Q23" s="19" t="n">
         <f aca="false">(N23/$N$44)*100</f>
         <v>85.0906890899206</v>
       </c>
       <c r="S23" s="9" t="n">
         <v>1994</v>
       </c>
-      <c r="T23" s="21" t="n">
+      <c r="T23" s="19" t="n">
         <f aca="false">SUM(D23:F23)</f>
         <v>114.28</v>
       </c>
-      <c r="U23" s="21" t="n">
+      <c r="U23" s="19" t="n">
         <f aca="false">SUM(G23:I23)</f>
         <v>308.86</v>
       </c>
-      <c r="V23" s="21" t="n">
+      <c r="V23" s="19" t="n">
         <f aca="false">SUM(J23:L23)</f>
         <v>149.58</v>
       </c>
-      <c r="W23" s="21" t="n">
+      <c r="W23" s="19" t="n">
         <f aca="false">SUM(M23,B24,C24)</f>
         <v>91.45</v>
       </c>
@@ -9753,28 +12391,41 @@
       <c r="P24" s="9" t="n">
         <v>1995</v>
       </c>
-      <c r="Q24" s="20" t="n">
+      <c r="Q24" s="19" t="n">
         <f aca="false">(N24/$N$44)*100</f>
         <v>85.5622641817951</v>
       </c>
       <c r="S24" s="9" t="n">
         <v>1995</v>
       </c>
-      <c r="T24" s="21" t="n">
+      <c r="T24" s="19" t="n">
         <f aca="false">SUM(D24:F24)</f>
         <v>243.05</v>
       </c>
-      <c r="U24" s="21" t="n">
+      <c r="U24" s="19" t="n">
         <f aca="false">SUM(G24:I24)</f>
         <v>209.06</v>
       </c>
-      <c r="V24" s="21" t="n">
+      <c r="V24" s="19" t="n">
         <f aca="false">SUM(J24:L24)</f>
         <v>222.77</v>
       </c>
-      <c r="W24" s="21" t="n">
+      <c r="W24" s="19" t="n">
         <f aca="false">SUM(M24,B25,C25)</f>
         <v>48.5</v>
+      </c>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC24" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
@@ -9824,28 +12475,47 @@
       <c r="P25" s="9" t="n">
         <v>1996</v>
       </c>
-      <c r="Q25" s="20" t="n">
+      <c r="Q25" s="19" t="n">
         <f aca="false">(N25/$N$44)*100</f>
         <v>35.6691616215708</v>
       </c>
       <c r="S25" s="9" t="n">
         <v>1996</v>
       </c>
-      <c r="T25" s="21" t="n">
+      <c r="T25" s="19" t="n">
         <f aca="false">SUM(D25:F25)</f>
         <v>15.75</v>
       </c>
-      <c r="U25" s="21" t="n">
+      <c r="U25" s="19" t="n">
         <f aca="false">SUM(G25:I25)</f>
         <v>76.94</v>
       </c>
-      <c r="V25" s="21" t="n">
+      <c r="V25" s="19" t="n">
         <f aca="false">SUM(J25:L25)</f>
         <v>139.96</v>
       </c>
-      <c r="W25" s="21" t="n">
+      <c r="W25" s="19" t="n">
         <f aca="false">SUM(M25,B26,C26)</f>
         <v>132.05</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z25" s="19" t="n">
+        <f aca="false">AVERAGE(T2:T43)</f>
+        <v>223.454523809524</v>
+      </c>
+      <c r="AA25" s="19" t="n">
+        <f aca="false">AVERAGE(U2:U43)</f>
+        <v>313.094523809524</v>
+      </c>
+      <c r="AB25" s="19" t="n">
+        <f aca="false">AVERAGE(V2:V43)</f>
+        <v>212.345714285714</v>
+      </c>
+      <c r="AC25" s="19" t="n">
+        <f aca="false">AVERAGE(W2:W43)</f>
+        <v>124.773095238095</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="26">
@@ -9895,28 +12565,47 @@
       <c r="P26" s="9" t="n">
         <v>1997</v>
       </c>
-      <c r="Q26" s="20" t="n">
+      <c r="Q26" s="19" t="n">
         <f aca="false">(N26/$N$44)*100</f>
         <v>84.3924832500092</v>
       </c>
       <c r="S26" s="9" t="n">
         <v>1997</v>
       </c>
-      <c r="T26" s="21" t="n">
+      <c r="T26" s="19" t="n">
         <f aca="false">SUM(D26:F26)</f>
         <v>124.95</v>
       </c>
-      <c r="U26" s="21" t="n">
+      <c r="U26" s="19" t="n">
         <f aca="false">SUM(G26:I26)</f>
         <v>432.81</v>
       </c>
-      <c r="V26" s="21" t="n">
+      <c r="V26" s="19" t="n">
         <f aca="false">SUM(J26:L26)</f>
         <v>74.17</v>
       </c>
-      <c r="W26" s="21" t="n">
+      <c r="W26" s="19" t="n">
         <f aca="false">SUM(M26,B27,C27)</f>
         <v>119.38</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z26" s="19" t="n">
+        <f aca="false">AVERAGE(T14:T43)</f>
+        <v>225.177</v>
+      </c>
+      <c r="AA26" s="19" t="n">
+        <f aca="false">AVERAGE(U14:U43)</f>
+        <v>348.281</v>
+      </c>
+      <c r="AB26" s="19" t="n">
+        <f aca="false">AVERAGE(V14:V43)</f>
+        <v>226.114333333333</v>
+      </c>
+      <c r="AC26" s="19" t="n">
+        <f aca="false">AVERAGE(W14:W43)</f>
+        <v>125.670333333333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="27">
@@ -9966,26 +12655,26 @@
       <c r="P27" s="9" t="n">
         <v>1998</v>
       </c>
-      <c r="Q27" s="20" t="n">
+      <c r="Q27" s="19" t="n">
         <f aca="false">(N27/$N$44)*100</f>
         <v>93.3466869969382</v>
       </c>
       <c r="S27" s="9" t="n">
         <v>1998</v>
       </c>
-      <c r="T27" s="21" t="n">
+      <c r="T27" s="19" t="n">
         <f aca="false">SUM(D27:F27)</f>
         <v>260.84</v>
       </c>
-      <c r="U27" s="21" t="n">
+      <c r="U27" s="19" t="n">
         <f aca="false">SUM(G27:I27)</f>
         <v>248.13</v>
       </c>
-      <c r="V27" s="21" t="n">
+      <c r="V27" s="19" t="n">
         <f aca="false">SUM(J27:L27)</f>
         <v>178.04</v>
       </c>
-      <c r="W27" s="21" t="n">
+      <c r="W27" s="19" t="n">
         <f aca="false">SUM(M27,B28,C28)</f>
         <v>21.34</v>
       </c>
@@ -10037,26 +12726,26 @@
       <c r="P28" s="9" t="n">
         <v>1999</v>
       </c>
-      <c r="Q28" s="20" t="n">
+      <c r="Q28" s="19" t="n">
         <f aca="false">(N28/$N$44)*100</f>
         <v>20.0259170083433</v>
       </c>
       <c r="S28" s="9" t="n">
         <v>1999</v>
       </c>
-      <c r="T28" s="21" t="n">
+      <c r="T28" s="19" t="n">
         <f aca="false">SUM(D28:F28)</f>
         <v>0</v>
       </c>
-      <c r="U28" s="21" t="n">
+      <c r="U28" s="19" t="n">
         <f aca="false">SUM(G28:I28)</f>
         <v>0</v>
       </c>
-      <c r="V28" s="21" t="n">
+      <c r="V28" s="19" t="n">
         <f aca="false">SUM(J28:L28)</f>
         <v>133.84</v>
       </c>
-      <c r="W28" s="21" t="n">
+      <c r="W28" s="19" t="n">
         <f aca="false">SUM(M28,B29,C29)</f>
         <v>91.1</v>
       </c>
@@ -10108,26 +12797,26 @@
       <c r="P29" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="Q29" s="20" t="n">
+      <c r="Q29" s="19" t="n">
         <f aca="false">(N29/$N$44)*100</f>
         <v>105.484022614021</v>
       </c>
       <c r="S29" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="T29" s="21" t="n">
+      <c r="T29" s="19" t="n">
         <f aca="false">SUM(D29:F29)</f>
         <v>299.95</v>
       </c>
-      <c r="U29" s="21" t="n">
+      <c r="U29" s="19" t="n">
         <f aca="false">SUM(G29:I29)</f>
         <v>222.2</v>
       </c>
-      <c r="V29" s="21" t="n">
+      <c r="V29" s="19" t="n">
         <f aca="false">SUM(J29:L29)</f>
         <v>297.15</v>
       </c>
-      <c r="W29" s="21" t="n">
+      <c r="W29" s="19" t="n">
         <f aca="false">SUM(M29,B30,C30)</f>
         <v>178.98</v>
       </c>
@@ -10179,26 +12868,26 @@
       <c r="P30" s="9" t="n">
         <v>2001</v>
       </c>
-      <c r="Q30" s="20" t="n">
+      <c r="Q30" s="19" t="n">
         <f aca="false">(N30/$N$44)*100</f>
         <v>107.928887653448</v>
       </c>
       <c r="S30" s="9" t="n">
         <v>2001</v>
       </c>
-      <c r="T30" s="21" t="n">
+      <c r="T30" s="19" t="n">
         <f aca="false">SUM(D30:F30)</f>
         <v>239.97</v>
       </c>
-      <c r="U30" s="21" t="n">
+      <c r="U30" s="19" t="n">
         <f aca="false">SUM(G30:I30)</f>
         <v>299.2</v>
       </c>
-      <c r="V30" s="21" t="n">
+      <c r="V30" s="19" t="n">
         <f aca="false">SUM(J30:L30)</f>
         <v>239.79</v>
       </c>
-      <c r="W30" s="21" t="n">
+      <c r="W30" s="19" t="n">
         <f aca="false">SUM(M30,B31,C31)</f>
         <v>94.94</v>
       </c>
@@ -10250,26 +12939,26 @@
       <c r="P31" s="9" t="n">
         <v>2002</v>
       </c>
-      <c r="Q31" s="20" t="n">
+      <c r="Q31" s="19" t="n">
         <f aca="false">(N31/$N$44)*100</f>
         <v>73.6778851067135</v>
       </c>
       <c r="S31" s="9" t="n">
         <v>2002</v>
       </c>
-      <c r="T31" s="21" t="n">
+      <c r="T31" s="19" t="n">
         <f aca="false">SUM(D31:F31)</f>
         <v>188.38</v>
       </c>
-      <c r="U31" s="21" t="n">
+      <c r="U31" s="19" t="n">
         <f aca="false">SUM(G31:I31)</f>
         <v>253.21</v>
       </c>
-      <c r="V31" s="21" t="n">
+      <c r="V31" s="19" t="n">
         <f aca="false">SUM(J31:L31)</f>
         <v>130</v>
       </c>
-      <c r="W31" s="21" t="n">
+      <c r="W31" s="19" t="n">
         <f aca="false">SUM(M31,B32,C32)</f>
         <v>29.96</v>
       </c>
@@ -10321,26 +13010,26 @@
       <c r="P32" s="9" t="n">
         <v>2003</v>
       </c>
-      <c r="Q32" s="20" t="n">
+      <c r="Q32" s="19" t="n">
         <f aca="false">(N32/$N$44)*100</f>
         <v>64.8255507364273</v>
       </c>
       <c r="S32" s="9" t="n">
         <v>2003</v>
       </c>
-      <c r="T32" s="21" t="n">
+      <c r="T32" s="19" t="n">
         <f aca="false">SUM(D32:F32)</f>
         <v>204.21</v>
       </c>
-      <c r="U32" s="21" t="n">
+      <c r="U32" s="19" t="n">
         <f aca="false">SUM(G32:I32)</f>
         <v>120.63</v>
       </c>
-      <c r="V32" s="21" t="n">
+      <c r="V32" s="19" t="n">
         <f aca="false">SUM(J32:L32)</f>
         <v>174.47</v>
       </c>
-      <c r="W32" s="21" t="n">
+      <c r="W32" s="19" t="n">
         <f aca="false">SUM(M32,B33,C33)</f>
         <v>71.1</v>
       </c>
@@ -10392,26 +13081,26 @@
       <c r="P33" s="9" t="n">
         <v>2004</v>
       </c>
-      <c r="Q33" s="20" t="n">
+      <c r="Q33" s="19" t="n">
         <f aca="false">(N33/$N$44)*100</f>
         <v>99.2997502319858</v>
       </c>
       <c r="S33" s="9" t="n">
         <v>2004</v>
       </c>
-      <c r="T33" s="21" t="n">
+      <c r="T33" s="19" t="n">
         <f aca="false">SUM(D33:F33)</f>
         <v>384.04</v>
       </c>
-      <c r="U33" s="21" t="n">
+      <c r="U33" s="19" t="n">
         <f aca="false">SUM(G33:I33)</f>
         <v>306.03</v>
       </c>
-      <c r="V33" s="21" t="n">
+      <c r="V33" s="19" t="n">
         <f aca="false">SUM(J33:L33)</f>
         <v>111.23</v>
       </c>
-      <c r="W33" s="21" t="n">
+      <c r="W33" s="19" t="n">
         <f aca="false">SUM(M33,B34,C34)</f>
         <v>184.12</v>
       </c>
@@ -10463,26 +13152,26 @@
       <c r="P34" s="9" t="n">
         <v>2005</v>
       </c>
-      <c r="Q34" s="20" t="n">
+      <c r="Q34" s="19" t="n">
         <f aca="false">(N34/$N$44)*100</f>
         <v>73.8987928560625</v>
       </c>
       <c r="S34" s="9" t="n">
         <v>2005</v>
       </c>
-      <c r="T34" s="21" t="n">
+      <c r="T34" s="19" t="n">
         <f aca="false">SUM(D34:F34)</f>
         <v>121.64</v>
       </c>
-      <c r="U34" s="21" t="n">
+      <c r="U34" s="19" t="n">
         <f aca="false">SUM(G34:I34)</f>
         <v>171.7</v>
       </c>
-      <c r="V34" s="21" t="n">
+      <c r="V34" s="19" t="n">
         <f aca="false">SUM(J34:L34)</f>
         <v>182.87</v>
       </c>
-      <c r="W34" s="21" t="n">
+      <c r="W34" s="19" t="n">
         <f aca="false">SUM(M34,B35,C35)</f>
         <v>120.64</v>
       </c>
@@ -10534,26 +13223,26 @@
       <c r="P35" s="9" t="n">
         <v>2006</v>
       </c>
-      <c r="Q35" s="20" t="n">
+      <c r="Q35" s="19" t="n">
         <f aca="false">(N35/$N$44)*100</f>
         <v>111.983059923884</v>
       </c>
       <c r="S35" s="9" t="n">
         <v>2006</v>
       </c>
-      <c r="T35" s="21" t="n">
+      <c r="T35" s="19" t="n">
         <f aca="false">SUM(D35:F35)</f>
         <v>297.69</v>
       </c>
-      <c r="U35" s="21" t="n">
+      <c r="U35" s="19" t="n">
         <f aca="false">SUM(G35:I35)</f>
         <v>262.11</v>
       </c>
-      <c r="V35" s="21" t="n">
+      <c r="V35" s="19" t="n">
         <f aca="false">SUM(J35:L35)</f>
         <v>256.02</v>
       </c>
-      <c r="W35" s="21" t="n">
+      <c r="W35" s="19" t="n">
         <f aca="false">SUM(M35,B36,C36)</f>
         <v>145.04</v>
       </c>
@@ -10605,26 +13294,26 @@
       <c r="P36" s="9" t="n">
         <v>2007</v>
       </c>
-      <c r="Q36" s="20" t="n">
+      <c r="Q36" s="19" t="n">
         <f aca="false">(N36/$N$44)*100</f>
         <v>100.852972075854</v>
       </c>
       <c r="S36" s="9" t="n">
         <v>2007</v>
       </c>
-      <c r="T36" s="21" t="n">
+      <c r="T36" s="19" t="n">
         <f aca="false">SUM(D36:F36)</f>
         <v>246.13</v>
       </c>
-      <c r="U36" s="21" t="n">
+      <c r="U36" s="19" t="n">
         <f aca="false">SUM(G36:I36)</f>
         <v>339.07</v>
       </c>
-      <c r="V36" s="21" t="n">
+      <c r="V36" s="19" t="n">
         <f aca="false">SUM(J36:L36)</f>
         <v>135.37</v>
       </c>
-      <c r="W36" s="21" t="n">
+      <c r="W36" s="19" t="n">
         <f aca="false">SUM(M36,B37,C37)</f>
         <v>208.53</v>
       </c>
@@ -10676,26 +13365,26 @@
       <c r="P37" s="9" t="n">
         <v>2008</v>
       </c>
-      <c r="Q37" s="20" t="n">
+      <c r="Q37" s="19" t="n">
         <f aca="false">(N37/$N$44)*100</f>
         <v>128.319931978073</v>
       </c>
       <c r="S37" s="9" t="n">
         <v>2008</v>
       </c>
-      <c r="T37" s="21" t="n">
+      <c r="T37" s="19" t="n">
         <f aca="false">SUM(D37:F37)</f>
         <v>257.01</v>
       </c>
-      <c r="U37" s="21" t="n">
+      <c r="U37" s="19" t="n">
         <f aca="false">SUM(G37:I37)</f>
         <v>415.53</v>
       </c>
-      <c r="V37" s="21" t="n">
+      <c r="V37" s="19" t="n">
         <f aca="false">SUM(J37:L37)</f>
         <v>216.92</v>
       </c>
-      <c r="W37" s="21" t="n">
+      <c r="W37" s="19" t="n">
         <f aca="false">SUM(M37,B38,C38)</f>
         <v>195.81</v>
       </c>
@@ -10747,26 +13436,26 @@
       <c r="P38" s="9" t="n">
         <v>2009</v>
       </c>
-      <c r="Q38" s="20" t="n">
+      <c r="Q38" s="19" t="n">
         <f aca="false">(N38/$N$44)*100</f>
         <v>107.53400074399</v>
       </c>
       <c r="S38" s="9" t="n">
         <v>2009</v>
       </c>
-      <c r="T38" s="21" t="n">
+      <c r="T38" s="19" t="n">
         <f aca="false">SUM(D38:F38)</f>
         <v>298.94</v>
       </c>
-      <c r="U38" s="21" t="n">
+      <c r="U38" s="19" t="n">
         <f aca="false">SUM(G38:I38)</f>
         <v>266.19</v>
       </c>
-      <c r="V38" s="21" t="n">
+      <c r="V38" s="19" t="n">
         <f aca="false">SUM(J38:L38)</f>
         <v>222.73</v>
       </c>
-      <c r="W38" s="21" t="n">
+      <c r="W38" s="19" t="n">
         <f aca="false">SUM(M38,B39,C39)</f>
         <v>99.06</v>
       </c>
@@ -10818,26 +13507,26 @@
       <c r="P39" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="Q39" s="20" t="n">
+      <c r="Q39" s="19" t="n">
         <f aca="false">(N39/$N$44)*100</f>
         <v>112.419152423894</v>
       </c>
       <c r="S39" s="9" t="n">
         <v>2010</v>
       </c>
-      <c r="T39" s="21" t="n">
+      <c r="T39" s="19" t="n">
         <f aca="false">SUM(D39:F39)</f>
         <v>196.08</v>
       </c>
-      <c r="U39" s="21" t="n">
+      <c r="U39" s="19" t="n">
         <f aca="false">SUM(G39:I39)</f>
         <v>536.98</v>
       </c>
-      <c r="V39" s="21" t="n">
+      <c r="V39" s="19" t="n">
         <f aca="false">SUM(J39:L39)</f>
         <v>169.88</v>
       </c>
-      <c r="W39" s="21" t="n">
+      <c r="W39" s="19" t="n">
         <f aca="false">SUM(M39,B40,C40)</f>
         <v>131.05</v>
       </c>
@@ -10889,26 +13578,26 @@
       <c r="P40" s="9" t="n">
         <v>2011</v>
       </c>
-      <c r="Q40" s="20" t="n">
+      <c r="Q40" s="19" t="n">
         <f aca="false">(N40/$N$44)*100</f>
         <v>95.4378707174596</v>
       </c>
       <c r="S40" s="9" t="n">
         <v>2011</v>
       </c>
-      <c r="T40" s="21" t="n">
+      <c r="T40" s="19" t="n">
         <f aca="false">SUM(D40:F40)</f>
         <v>314.93</v>
       </c>
-      <c r="U40" s="21" t="n">
+      <c r="U40" s="19" t="n">
         <f aca="false">SUM(G40:I40)</f>
         <v>194.05</v>
       </c>
-      <c r="V40" s="21" t="n">
+      <c r="V40" s="19" t="n">
         <f aca="false">SUM(J40:L40)</f>
         <v>185.64</v>
       </c>
-      <c r="W40" s="21" t="n">
+      <c r="W40" s="19" t="n">
         <f aca="false">SUM(M40,B41,C41)</f>
         <v>128.77</v>
       </c>
@@ -10960,26 +13649,26 @@
       <c r="P41" s="9" t="n">
         <v>2012</v>
       </c>
-      <c r="Q41" s="20" t="n">
+      <c r="Q41" s="19" t="n">
         <f aca="false">(N41/$N$44)*100</f>
         <v>86.6061391424495</v>
       </c>
       <c r="S41" s="9" t="n">
         <v>2012</v>
       </c>
-      <c r="T41" s="21" t="n">
+      <c r="T41" s="19" t="n">
         <f aca="false">SUM(D41:F41)</f>
         <v>258.31</v>
       </c>
-      <c r="U41" s="21" t="n">
+      <c r="U41" s="19" t="n">
         <f aca="false">SUM(G41:I41)</f>
         <v>186.69</v>
       </c>
-      <c r="V41" s="21" t="n">
+      <c r="V41" s="19" t="n">
         <f aca="false">SUM(J41:L41)</f>
         <v>140.97</v>
       </c>
-      <c r="W41" s="21" t="n">
+      <c r="W41" s="19" t="n">
         <f aca="false">SUM(M41,B42,C42)</f>
         <v>262.11</v>
       </c>
@@ -11031,26 +13720,26 @@
       <c r="P42" s="9" t="n">
         <v>2013</v>
       </c>
-      <c r="Q42" s="20" t="n">
+      <c r="Q42" s="19" t="n">
         <f aca="false">(N42/$N$44)*100</f>
         <v>117.415330278342</v>
       </c>
       <c r="S42" s="9" t="n">
         <v>2013</v>
       </c>
-      <c r="T42" s="21" t="n">
+      <c r="T42" s="19" t="n">
         <f aca="false">SUM(D42:F42)</f>
         <v>339.59</v>
       </c>
-      <c r="U42" s="21" t="n">
+      <c r="U42" s="19" t="n">
         <f aca="false">SUM(G42:I42)</f>
         <v>272.78</v>
       </c>
-      <c r="V42" s="21" t="n">
+      <c r="V42" s="19" t="n">
         <f aca="false">SUM(J42:L42)</f>
         <v>206.98</v>
       </c>
-      <c r="W42" s="21" t="n">
+      <c r="W42" s="19" t="n">
         <f aca="false">SUM(M42,B43,C43)</f>
         <v>111.99</v>
       </c>
@@ -11102,254 +13791,194 @@
       <c r="P43" s="9" t="n">
         <v>2014</v>
       </c>
-      <c r="Q43" s="20" t="n">
+      <c r="Q43" s="19" t="n">
         <f aca="false">(N43/$N$44)*100</f>
         <v>94.9720186242729</v>
       </c>
       <c r="S43" s="9" t="n">
         <v>2014</v>
       </c>
-      <c r="T43" s="21" t="n">
+      <c r="T43" s="19" t="n">
         <f aca="false">SUM(D43:F43)</f>
         <v>214.62</v>
       </c>
-      <c r="U43" s="21" t="n">
+      <c r="U43" s="19" t="n">
         <f aca="false">SUM(G43:I43)</f>
         <v>363.95</v>
       </c>
-      <c r="V43" s="21" t="n">
+      <c r="V43" s="19" t="n">
         <f aca="false">SUM(J43:L43)</f>
         <v>152.9</v>
       </c>
-      <c r="W43" s="21" t="n">
+      <c r="W43" s="19" t="n">
         <f aca="false">SUM(M43,B44,C44)</f>
         <v>29.2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="44">
-      <c r="N44" s="22" t="n">
+      <c r="N44" s="20" t="n">
         <f aca="false">AVERAGE(N2:N43)</f>
         <v>873.667857142857</v>
       </c>
-      <c r="Q44" s="23" t="n">
+      <c r="Q44" s="20" t="n">
         <f aca="false">(N44/$N$44)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="114">
-      <c r="J114" s="19" t="n">
-        <v>0</v>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="66">
+      <c r="A66" s="15"/>
+      <c r="B66" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N66" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="115">
-      <c r="J115" s="19" t="n">
-        <v>0</v>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="67">
+      <c r="A67" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="17" t="n">
+        <f aca="false">AVERAGE(B2:B43)</f>
+        <v>39.0459523809524</v>
+      </c>
+      <c r="C67" s="17" t="n">
+        <f aca="false">AVERAGE(C2:C43)</f>
+        <v>36.3578571428571</v>
+      </c>
+      <c r="D67" s="17" t="n">
+        <f aca="false">AVERAGE(D2:D43)</f>
+        <v>55.582619047619</v>
+      </c>
+      <c r="E67" s="17" t="n">
+        <f aca="false">AVERAGE(E2:E43)</f>
+        <v>87.4983333333333</v>
+      </c>
+      <c r="F67" s="17" t="n">
+        <f aca="false">AVERAGE(F2:F43)</f>
+        <v>80.3735714285715</v>
+      </c>
+      <c r="G67" s="17" t="n">
+        <f aca="false">AVERAGE(G2:G43)</f>
+        <v>86.7621428571428</v>
+      </c>
+      <c r="H67" s="17" t="n">
+        <f aca="false">AVERAGE(H2:H43)</f>
+        <v>116.796904761905</v>
+      </c>
+      <c r="I67" s="17" t="n">
+        <f aca="false">AVERAGE(I2:I43)</f>
+        <v>109.535476190476</v>
+      </c>
+      <c r="J67" s="17" t="n">
+        <f aca="false">AVERAGE(J2:J43)</f>
+        <v>91.7392857142857</v>
+      </c>
+      <c r="K67" s="17" t="n">
+        <f aca="false">AVERAGE(K2:K43)</f>
+        <v>60.8223809523809</v>
+      </c>
+      <c r="L67" s="17" t="n">
+        <f aca="false">AVERAGE(L2:L43)</f>
+        <v>59.7840476190476</v>
+      </c>
+      <c r="M67" s="17" t="n">
+        <f aca="false">AVERAGE(M2:M43)</f>
+        <v>49.3692857142857</v>
+      </c>
+      <c r="N67" s="11" t="n">
+        <f aca="false">AVERAGE(N2:N43)</f>
+        <v>873.667857142857</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="116">
-      <c r="J116" s="19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="117">
-      <c r="J117" s="24" t="n">
-        <v>873.25</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="118">
-      <c r="J118" s="24" t="n">
-        <v>993.83</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="119">
-      <c r="J119" s="24" t="n">
-        <v>1041.8</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="120">
-      <c r="J120" s="24" t="n">
-        <v>897.4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="121">
-      <c r="J121" s="24" t="n">
-        <v>930.89</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="122">
-      <c r="J122" s="24" t="n">
-        <v>818.7</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="123">
-      <c r="J123" s="24" t="n">
-        <v>1070.59</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="124">
-      <c r="J124" s="24" t="n">
-        <v>1105.09</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="125">
-      <c r="J125" s="24" t="n">
-        <v>1069.08</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="126">
-      <c r="J126" s="24" t="n">
-        <v>1000.15</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="127">
-      <c r="J127" s="24" t="n">
-        <v>1057.42</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="128">
-      <c r="J128" s="24" t="n">
-        <v>1046.97</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="129">
-      <c r="J129" s="24" t="n">
-        <v>428.02</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="130">
-      <c r="J130" s="24" t="n">
-        <v>872.41</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="131">
-      <c r="J131" s="24" t="n">
-        <v>1077.63</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="132">
-      <c r="J132" s="24" t="n">
-        <v>1017.2</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="133">
-      <c r="J133" s="24" t="n">
-        <v>3967.43</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="134">
-      <c r="J134" s="24" t="n">
-        <v>959.8</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="135">
-      <c r="J135" s="24" t="n">
-        <v>743.41</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="136">
-      <c r="J136" s="24" t="n">
-        <v>747.53</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="137">
-      <c r="J137" s="24" t="n">
-        <v>311.63</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="138">
-      <c r="J138" s="24" t="n">
-        <v>737.31</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="139">
-      <c r="J139" s="24" t="n">
-        <v>815.54</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="140">
-      <c r="J140" s="24" t="n">
-        <v>174.96</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="141">
-      <c r="J141" s="24" t="n">
-        <v>921.58</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="142">
-      <c r="J142" s="24" t="n">
-        <v>942.94</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="143">
-      <c r="J143" s="24" t="n">
-        <v>643.7</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="144">
-      <c r="J144" s="24" t="n">
-        <v>566.36</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="145">
-      <c r="J145" s="24" t="n">
-        <v>867.55</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="146">
-      <c r="J146" s="24" t="n">
-        <v>645.63</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="147">
-      <c r="J147" s="24" t="n">
-        <v>978.36</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="148">
-      <c r="J148" s="24" t="n">
-        <v>881.12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="149">
-      <c r="J149" s="24" t="n">
-        <v>1121.09</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="150">
-      <c r="J150" s="24" t="n">
-        <v>939.49</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="151">
-      <c r="J151" s="24" t="n">
-        <v>982.17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="152">
-      <c r="J152" s="24" t="n">
-        <v>833.81</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="153">
-      <c r="J153" s="24" t="n">
-        <v>756.65</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="154">
-      <c r="J154" s="24" t="n">
-        <v>1025.82</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="155">
-      <c r="J155" s="24" t="n">
-        <v>826.18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="156">
-      <c r="J156" s="25" t="n">
-        <f aca="false">AVERAGE(J114:J155)</f>
-        <v>873.583095238095</v>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="68">
+      <c r="A68" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="17" t="n">
+        <f aca="false">AVERAGE(B14:B43)</f>
+        <v>41.3376666666667</v>
+      </c>
+      <c r="C68" s="17" t="n">
+        <f aca="false">AVERAGE(C14:C43)</f>
+        <v>40.2343333333333</v>
+      </c>
+      <c r="D68" s="17" t="n">
+        <f aca="false">AVERAGE(D14:D43)</f>
+        <v>53.8563333333333</v>
+      </c>
+      <c r="E68" s="17" t="n">
+        <f aca="false">AVERAGE(E14:E43)</f>
+        <v>85.2033333333333</v>
+      </c>
+      <c r="F68" s="17" t="n">
+        <f aca="false">AVERAGE(F14:F43)</f>
+        <v>86.1173333333334</v>
+      </c>
+      <c r="G68" s="17" t="n">
+        <f aca="false">AVERAGE(G14:G43)</f>
+        <v>94.2133333333333</v>
+      </c>
+      <c r="H68" s="17" t="n">
+        <f aca="false">AVERAGE(H14:H43)</f>
+        <v>134.270333333333</v>
+      </c>
+      <c r="I68" s="17" t="n">
+        <f aca="false">AVERAGE(I14:I43)</f>
+        <v>119.797333333333</v>
+      </c>
+      <c r="J68" s="17" t="n">
+        <f aca="false">AVERAGE(J14:J43)</f>
+        <v>104.051</v>
+      </c>
+      <c r="K68" s="17" t="n">
+        <f aca="false">AVERAGE(K14:K43)</f>
+        <v>61.877</v>
+      </c>
+      <c r="L68" s="17" t="n">
+        <f aca="false">AVERAGE(L14:L43)</f>
+        <v>60.1863333333333</v>
+      </c>
+      <c r="M68" s="17" t="n">
+        <f aca="false">AVERAGE(M14:M43)</f>
+        <v>48.6363333333333</v>
+      </c>
+      <c r="N68" s="11" t="n">
+        <f aca="false">AVERAGE(N14:N43)</f>
+        <v>929.780666666667</v>
       </c>
     </row>
   </sheetData>
@@ -11360,5 +13989,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/George-Yanev-Milwaukee-Popov.xlsx
+++ b/George-Yanev-Milwaukee-Popov.xlsx
@@ -287,6 +287,7 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="true"/>
       <sz val="13"/>
     </font>
     <font>
@@ -513,7 +514,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart389.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart109.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -528,7 +529,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Milwaukee Airport Средни месечни температури за 2та периода</a:t>
             </a:r>
           </a:p>
@@ -776,11 +777,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="34729009"/>
-        <c:axId val="40784176"/>
+        <c:axId val="60584489"/>
+        <c:axId val="79094754"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34729009"/>
+        <c:axId val="60584489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,14 +797,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="40784176"/>
+        <c:crossAx val="79094754"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40784176"/>
+        <c:axId val="79094754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +829,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="34729009"/>
+        <c:crossAx val="60584489"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -856,7 +857,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart390.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart110.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -871,7 +872,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Milwaukee Airport Аномалии на температурите за целият период</a:t>
             </a:r>
           </a:p>
@@ -1181,11 +1182,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="52249837"/>
-        <c:axId val="69142401"/>
+        <c:axId val="33848154"/>
+        <c:axId val="73083942"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52249837"/>
+        <c:axId val="33848154"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,14 +1202,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69142401"/>
+        <c:crossAx val="73083942"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69142401"/>
+        <c:axId val="73083942"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1234,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="52249837"/>
+        <c:crossAx val="33848154"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1261,7 +1262,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart391.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart111.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1276,7 +1277,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Milwaukee Airport Сезонни температури за целят период</a:t>
             </a:r>
           </a:p>
@@ -2480,11 +2481,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="56945936"/>
-        <c:axId val="89704074"/>
+        <c:axId val="92506109"/>
+        <c:axId val="91005918"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56945936"/>
+        <c:axId val="92506109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,14 +2501,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89704074"/>
+        <c:crossAx val="91005918"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89704074"/>
+        <c:axId val="91005918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +2533,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56945936"/>
+        <c:crossAx val="92506109"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2560,7 +2561,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart392.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart112.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2575,7 +2576,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Milwaukee Airport Средни сезонни температури за 2та периода</a:t>
             </a:r>
           </a:p>
@@ -2727,11 +2728,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="19909606"/>
-        <c:axId val="50396022"/>
+        <c:axId val="44236116"/>
+        <c:axId val="96686100"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19909606"/>
+        <c:axId val="44236116"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,14 +2748,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="50396022"/>
+        <c:crossAx val="96686100"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50396022"/>
+        <c:axId val="96686100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2780,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="19909606"/>
+        <c:crossAx val="44236116"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2807,7 +2808,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart393.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart113.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2822,8 +2823,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
-              <a:t>Milwaukee Airport Средни месечни температури за 2та периода</a:t>
+              <a:rPr b="1" sz="1300"/>
+              <a:t>Milwaukee Airport Средни месечни валежи за 2та периода</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3053,11 +3054,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="68798334"/>
-        <c:axId val="26022314"/>
+        <c:axId val="54422708"/>
+        <c:axId val="40714415"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68798334"/>
+        <c:axId val="54422708"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3073,14 +3074,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="26022314"/>
+        <c:crossAx val="40714415"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26022314"/>
+        <c:axId val="40714415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,7 +3106,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68798334"/>
+        <c:crossAx val="54422708"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3133,7 +3134,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart394.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart114.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3148,7 +3149,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Milwaukee Airport Аномалии на валежите за целият период</a:t>
             </a:r>
           </a:p>
@@ -3450,11 +3451,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="46330419"/>
-        <c:axId val="74037559"/>
+        <c:axId val="45217097"/>
+        <c:axId val="25245503"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46330419"/>
+        <c:axId val="45217097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,14 +3471,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="74037559"/>
+        <c:crossAx val="25245503"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74037559"/>
+        <c:axId val="25245503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,7 +3503,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46330419"/>
+        <c:crossAx val="45217097"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -3530,7 +3531,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart395.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart115.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3545,7 +3546,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Milwaukee Airport Сезонни валежи за целят период</a:t>
             </a:r>
           </a:p>
@@ -4749,11 +4750,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="81992712"/>
-        <c:axId val="47943389"/>
+        <c:axId val="18841601"/>
+        <c:axId val="90204137"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81992712"/>
+        <c:axId val="18841601"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4769,14 +4770,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="47943389"/>
+        <c:crossAx val="90204137"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47943389"/>
+        <c:axId val="90204137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4801,7 +4802,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="81992712"/>
+        <c:crossAx val="18841601"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -4829,7 +4830,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart396.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart116.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4844,7 +4845,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Milwaukee Airport Средни сезонни валежи за 2та периода</a:t>
             </a:r>
           </a:p>
@@ -4996,11 +4997,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="87353269"/>
-        <c:axId val="30843880"/>
+        <c:axId val="82613738"/>
+        <c:axId val="20154491"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87353269"/>
+        <c:axId val="82613738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5016,14 +5017,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="30843880"/>
+        <c:crossAx val="20154491"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30843880"/>
+        <c:axId val="20154491"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +5049,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="87353269"/>
+        <c:crossAx val="82613738"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5076,7 +5077,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart397.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart117.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -5091,7 +5092,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr b="1" sz="1300"/>
               <a:t>Milwaukee Airport Средни сезонни валежи за 2та периода</a:t>
             </a:r>
           </a:p>
@@ -5226,11 +5227,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="69526181"/>
-        <c:axId val="80053122"/>
+        <c:axId val="95526709"/>
+        <c:axId val="47756202"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69526181"/>
+        <c:axId val="95526709"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5246,14 +5247,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="80053122"/>
+        <c:crossAx val="47756202"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80053122"/>
+        <c:axId val="47756202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5278,7 +5279,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69526181"/>
+        <c:crossAx val="95526709"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -5311,15 +5312,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>357480</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>236160</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5327,8 +5328,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="330480" y="11647800"/>
-        <a:ext cx="9697320" cy="3239640"/>
+        <a:off x="357480" y="11638800"/>
+        <a:ext cx="9795240" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5341,15 +5342,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>192960</xdr:colOff>
+      <xdr:colOff>219960</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
+      <xdr:colOff>252720</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5357,8 +5358,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="192960" y="7596360"/>
-        <a:ext cx="9824760" cy="3239640"/>
+        <a:off x="219960" y="7587360"/>
+        <a:ext cx="9922680" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5371,15 +5372,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>649440</xdr:colOff>
+      <xdr:colOff>676440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5387,8 +5388,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10814400" y="324000"/>
-        <a:ext cx="7443000" cy="3239640"/>
+        <a:off x="10943640" y="315000"/>
+        <a:ext cx="7523280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5401,15 +5402,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>646560</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:colOff>673560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>794880</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5417,8 +5418,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10811520" y="4905000"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="10940760" y="4896000"/>
+        <a:ext cx="5815440" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5436,15 +5437,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>357480</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>63720</xdr:colOff>
+      <xdr:colOff>90360</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5452,8 +5453,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="330480" y="11647800"/>
-        <a:ext cx="9697320" cy="3239640"/>
+        <a:off x="357480" y="11638800"/>
+        <a:ext cx="9797400" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5466,15 +5467,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>192960</xdr:colOff>
+      <xdr:colOff>219960</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>53640</xdr:colOff>
+      <xdr:colOff>80280</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5482,8 +5483,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="192960" y="7596360"/>
-        <a:ext cx="9824760" cy="3239640"/>
+        <a:off x="219960" y="7587360"/>
+        <a:ext cx="9924840" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5496,15 +5497,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>476640</xdr:colOff>
+      <xdr:colOff>503640</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>655920</xdr:colOff>
+      <xdr:colOff>682560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5512,8 +5513,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10814400" y="324000"/>
-        <a:ext cx="7443000" cy="3239640"/>
+        <a:off x="10945440" y="315000"/>
+        <a:ext cx="7515000" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5525,16 +5526,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>804960</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>140400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5542,8 +5543,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11142720" y="4875120"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="11273760" y="4866120"/>
+        <a:ext cx="5823360" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5556,15 +5557,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>130320</xdr:colOff>
+      <xdr:colOff>156960</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5572,8 +5573,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11159280" y="8445960"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="11298960" y="8436960"/>
+        <a:ext cx="5814720" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5599,19 +5600,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.99489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.86734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.93877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.86734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.45408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.41836734693878"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.45408163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.65816326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.79591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.06632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.93877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.00510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.93877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.52551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.58673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.46938775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.52551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.71428571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.85714285714286"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
@@ -7388,33 +7388,33 @@
   </sheetPr>
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Y58" activeCellId="0" pane="topLeft" sqref="Y58"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="AE50" activeCellId="0" pane="topLeft" sqref="AE50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.45408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.19897959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="5.29081632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="5.55102040816327"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.81122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.55102040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="5.29081632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.55102040816327"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="9.16326530612245"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.64795918367347"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.16326530612245"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.45408163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.3265306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="5.67857142857143"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.29081632653061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="6.3265306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="5.55102040816327"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="5.16326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.26530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="5.3469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="5.60714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.87755102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.60714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="5.3469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.60714285714286"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="9.25"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.73979591836735"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.25"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.52551020408163"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.38775510204082"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="5.73469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.3469387755102"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="6.38775510204082"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="5.60714285714286"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="5.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="11.6377551020408"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
@@ -10694,33 +10694,33 @@
   </sheetPr>
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M33" activeCellId="0" pane="topLeft" sqref="M33"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="P31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="X45" activeCellId="0" pane="topLeft" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.45408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.19897959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="5.29081632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="5.55102040816327"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.81122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.55102040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="5.29081632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="9.16326530612245"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.64795918367347"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.16326530612245"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.45408163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.3265306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="5.67857142857143"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.29081632653061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="6.3265306122449"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="5.55102040816327"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="5.16326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.52551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.26530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="5.3469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="5.60714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.87755102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.60714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="5.3469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.08163265306122"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="9.25"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.73979591836735"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.25"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.52551020408163"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.38775510204082"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="5.73469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.3469387755102"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.6377551020408"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="6.38775510204082"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="5.60714285714286"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="5.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="11.6377551020408"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
